--- a/output/f1_score.xlsx
+++ b/output/f1_score.xlsx
@@ -588,7 +588,7 @@
         <v>0.455</v>
       </c>
       <c r="F2" t="n">
-        <v>0.615</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.269</v>
+        <v>0.192</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0.33</v>
       </c>
       <c r="F4" t="n">
-        <v>0.364</v>
+        <v>0.091</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -771,7 +771,7 @@
         <v>0.828</v>
       </c>
       <c r="F5" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0.157</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         <v>0.13</v>
       </c>
       <c r="F7" t="n">
-        <v>0.222</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -954,7 +954,7 @@
         <v>0.2</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0.639</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>0.642</v>
       </c>
       <c r="F11" t="n">
-        <v>0.327</v>
+        <v>0.184</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0.878</v>
       </c>
       <c r="F13" t="n">
-        <v>0.619</v>
+        <v>0.369</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1320,7 +1320,7 @@
         <v>0.718</v>
       </c>
       <c r="F14" t="n">
-        <v>0.846</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0.269</v>
+        <v>0.115</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>0.5570000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>0.745</v>
+        <v>0.602</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0.429</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1503,7 +1503,7 @@
         <v>0.9330000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>0.917</v>
+        <v>0.25</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1564,7 +1564,7 @@
         <v>0.5</v>
       </c>
       <c r="F18" t="n">
-        <v>0.786</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0.143</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>0.681</v>
       </c>
       <c r="F19" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1686,7 +1686,7 @@
         <v>0.625</v>
       </c>
       <c r="F20" t="n">
-        <v>0.714</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1747,7 +1747,7 @@
         <v>0.582</v>
       </c>
       <c r="F21" t="n">
-        <v>0.267</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2</v>
+        <v>0.067</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0.308</v>
+        <v>0.154</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0.826</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1930,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>0.204</v>
       </c>
       <c r="F25" t="n">
-        <v>0.462</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.154</v>
+        <v>0.077</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0.9360000000000001</v>
       </c>
       <c r="F26" t="n">
-        <v>0.556</v>
+        <v>0.222</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2113,7 +2113,7 @@
         <v>0.661</v>
       </c>
       <c r="F27" t="n">
-        <v>0.391</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0.188</v>
+        <v>0.145</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>0.254</v>
       </c>
       <c r="F28" t="n">
-        <v>0.867</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2192,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0.267</v>
+        <v>0.2</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0.612</v>
       </c>
       <c r="F30" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>0.587</v>
       </c>
       <c r="F31" t="n">
-        <v>0.292</v>
+        <v>0.042</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0.775</v>
       </c>
       <c r="F32" t="n">
-        <v>0.733</v>
+        <v>0.037</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -2479,7 +2479,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -2540,7 +2540,7 @@
         <v>0.411</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -2601,7 +2601,7 @@
         <v>0.743</v>
       </c>
       <c r="F35" t="n">
-        <v>0.857</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -2619,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0.429</v>
+        <v>0.143</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -2784,7 +2784,7 @@
         <v>0.536</v>
       </c>
       <c r="F38" t="n">
-        <v>0.5649999999999999</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -2802,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0.239</v>
+        <v>0.022</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>0.488</v>
       </c>
       <c r="F42" t="n">
-        <v>0.737</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0.237</v>
+        <v>0.132</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -3089,7 +3089,7 @@
         <v>0.762</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3333,7 +3333,7 @@
         <v>0.6</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -3394,7 +3394,7 @@
         <v>0.605</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -3412,7 +3412,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>0.283</v>
+        <v>0.2</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
@@ -3455,7 +3455,7 @@
         <v>0.444</v>
       </c>
       <c r="F49" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -3473,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
@@ -3516,7 +3516,7 @@
         <v>0.465</v>
       </c>
       <c r="F50" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>0.736</v>
       </c>
       <c r="F52" t="n">
-        <v>0.842</v>
+        <v>0.158</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -3699,7 +3699,7 @@
         <v>0.239</v>
       </c>
       <c r="F53" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>0.709</v>
       </c>
       <c r="F54" t="n">
-        <v>0.743</v>
+        <v>0.195</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -3778,7 +3778,7 @@
         <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>0.258</v>
+        <v>0.097</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
@@ -3821,7 +3821,7 @@
         <v>0.825</v>
       </c>
       <c r="F55" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -3882,7 +3882,7 @@
         <v>0.394</v>
       </c>
       <c r="F56" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -4065,7 +4065,7 @@
         <v>0.445</v>
       </c>
       <c r="F59" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -4083,7 +4083,7 @@
         <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>0.24</v>
+        <v>0.135</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
@@ -4126,7 +4126,7 @@
         <v>0.771</v>
       </c>
       <c r="F60" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -4187,7 +4187,7 @@
         <v>0.377</v>
       </c>
       <c r="F61" t="n">
-        <v>0.175</v>
+        <v>0.025</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -4327,7 +4327,7 @@
         <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
@@ -4370,7 +4370,7 @@
         <v>0.613</v>
       </c>
       <c r="F64" t="n">
-        <v>0.611</v>
+        <v>0.278</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -4492,7 +4492,7 @@
         <v>0.729</v>
       </c>
       <c r="F66" t="n">
-        <v>0.556</v>
+        <v>0.111</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -4553,7 +4553,7 @@
         <v>0.801</v>
       </c>
       <c r="F67" t="n">
-        <v>0.4</v>
+        <v>0.233</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>0.533</v>
+        <v>0.2</v>
       </c>
       <c r="M67" t="n">
         <v>0</v>
@@ -4736,7 +4736,7 @@
         <v>0.575</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -4858,7 +4858,7 @@
         <v>0.572</v>
       </c>
       <c r="F72" t="n">
-        <v>0.594</v>
+        <v>0.344</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -4876,7 +4876,7 @@
         <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="M72" t="n">
         <v>0</v>
@@ -4980,7 +4980,7 @@
         <v>0.948</v>
       </c>
       <c r="F74" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -5059,7 +5059,7 @@
         <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>0.889</v>
+        <v>0.222</v>
       </c>
       <c r="M75" t="n">
         <v>0</v>
@@ -5102,7 +5102,7 @@
         <v>0.4</v>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>0.768</v>
       </c>
       <c r="F77" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -5181,7 +5181,7 @@
         <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="M77" t="n">
         <v>0</v>
@@ -5224,7 +5224,7 @@
         <v>0.468</v>
       </c>
       <c r="F78" t="n">
-        <v>0.727</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -5242,7 +5242,7 @@
         <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>0.364</v>
+        <v>0.227</v>
       </c>
       <c r="M78" t="n">
         <v>0</v>
@@ -5285,7 +5285,7 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -5346,7 +5346,7 @@
         <v>0.328</v>
       </c>
       <c r="F80" t="n">
-        <v>0.334</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -5407,7 +5407,7 @@
         <v>0.244</v>
       </c>
       <c r="F81" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -5468,7 +5468,7 @@
         <v>0.367</v>
       </c>
       <c r="F82" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="L82" t="n">
-        <v>0.333</v>
+        <v>0.133</v>
       </c>
       <c r="M82" t="n">
         <v>0</v>
@@ -5590,7 +5590,7 @@
         <v>0.533</v>
       </c>
       <c r="F84" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -5651,7 +5651,7 @@
         <v>0.956</v>
       </c>
       <c r="F85" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -5712,7 +5712,7 @@
         <v>0.6850000000000001</v>
       </c>
       <c r="F86" t="n">
-        <v>0.722</v>
+        <v>0.222</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -5730,7 +5730,7 @@
         <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>0.25</v>
+        <v>0.167</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
@@ -5773,7 +5773,7 @@
         <v>0.595</v>
       </c>
       <c r="F87" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -5834,7 +5834,7 @@
         <v>0.531</v>
       </c>
       <c r="F88" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -5852,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>0.407</v>
+        <v>0.074</v>
       </c>
       <c r="M88" t="n">
         <v>0</v>
@@ -5956,7 +5956,7 @@
         <v>0.577</v>
       </c>
       <c r="F90" t="n">
-        <v>0.833</v>
+        <v>0.056</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>0.389</v>
+        <v>0.222</v>
       </c>
       <c r="M90" t="n">
         <v>0</v>
@@ -6078,7 +6078,7 @@
         <v>0.585</v>
       </c>
       <c r="F92" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -6139,7 +6139,7 @@
         <v>0.239</v>
       </c>
       <c r="F93" t="n">
-        <v>0.167</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         <v>0.3</v>
       </c>
       <c r="F94" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -6218,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M94" t="n">
         <v>0</v>
@@ -6261,7 +6261,7 @@
         <v>0.22</v>
       </c>
       <c r="F95" t="n">
-        <v>0.273</v>
+        <v>0</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
@@ -6279,7 +6279,7 @@
         <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>0.045</v>
+        <v>0</v>
       </c>
       <c r="M95" t="n">
         <v>0</v>
@@ -6322,7 +6322,7 @@
         <v>0.517</v>
       </c>
       <c r="F96" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
@@ -6383,7 +6383,7 @@
         <v>0.634</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.083</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
@@ -6566,7 +6566,7 @@
         <v>0.095</v>
       </c>
       <c r="F100" t="n">
-        <v>0.204</v>
+        <v>0.079</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
@@ -6627,7 +6627,7 @@
         <v>0.383</v>
       </c>
       <c r="F101" t="n">
-        <v>0.4</v>
+        <v>0.067</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
@@ -6688,7 +6688,7 @@
         <v>0.806</v>
       </c>
       <c r="F102" t="n">
-        <v>0.587</v>
+        <v>0.219</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
@@ -6706,7 +6706,7 @@
         <v>0</v>
       </c>
       <c r="L102" t="n">
-        <v>0.316</v>
+        <v>0.211</v>
       </c>
       <c r="M102" t="n">
         <v>0</v>
@@ -6749,7 +6749,7 @@
         <v>0.743</v>
       </c>
       <c r="F103" t="n">
-        <v>0.64</v>
+        <v>0.276</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
@@ -6871,7 +6871,7 @@
         <v>0.5669999999999999</v>
       </c>
       <c r="F105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G105" t="n">
         <v>0</v>
@@ -6932,7 +6932,7 @@
         <v>0.525</v>
       </c>
       <c r="F106" t="n">
-        <v>0.714</v>
+        <v>0</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
@@ -6993,7 +6993,7 @@
         <v>0.473</v>
       </c>
       <c r="F107" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.053</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
@@ -7011,7 +7011,7 @@
         <v>0</v>
       </c>
       <c r="L107" t="n">
-        <v>0.105</v>
+        <v>0.053</v>
       </c>
       <c r="M107" t="n">
         <v>0</v>
@@ -7054,7 +7054,7 @@
         <v>0.766</v>
       </c>
       <c r="F108" t="n">
-        <v>0.944</v>
+        <v>0</v>
       </c>
       <c r="G108" t="n">
         <v>0</v>
@@ -7115,7 +7115,7 @@
         <v>0.643</v>
       </c>
       <c r="F109" t="n">
-        <v>0.571</v>
+        <v>0</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
@@ -7133,7 +7133,7 @@
         <v>0</v>
       </c>
       <c r="L109" t="n">
-        <v>0.381</v>
+        <v>0.048</v>
       </c>
       <c r="M109" t="n">
         <v>0</v>
@@ -7176,7 +7176,7 @@
         <v>0.864</v>
       </c>
       <c r="F110" t="n">
-        <v>1</v>
+        <v>0.091</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
@@ -7194,7 +7194,7 @@
         <v>0</v>
       </c>
       <c r="L110" t="n">
-        <v>0.394</v>
+        <v>0.121</v>
       </c>
       <c r="M110" t="n">
         <v>0</v>
@@ -7237,7 +7237,7 @@
         <v>0.925</v>
       </c>
       <c r="F111" t="n">
-        <v>0.274</v>
+        <v>0.215</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
@@ -7255,7 +7255,7 @@
         <v>0</v>
       </c>
       <c r="L111" t="n">
-        <v>0.206</v>
+        <v>0.147</v>
       </c>
       <c r="M111" t="n">
         <v>0</v>
@@ -7298,7 +7298,7 @@
         <v>0.372</v>
       </c>
       <c r="F112" t="n">
-        <v>0.482</v>
+        <v>0.028</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
@@ -7359,7 +7359,7 @@
         <v>0.548</v>
       </c>
       <c r="F113" t="n">
-        <v>0.727</v>
+        <v>0</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
@@ -7377,7 +7377,7 @@
         <v>0</v>
       </c>
       <c r="L113" t="n">
-        <v>0.259</v>
+        <v>0.214</v>
       </c>
       <c r="M113" t="n">
         <v>0</v>
@@ -7420,7 +7420,7 @@
         <v>0.45</v>
       </c>
       <c r="F114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G114" t="n">
         <v>0</v>
@@ -7481,7 +7481,7 @@
         <v>0.795</v>
       </c>
       <c r="F115" t="n">
-        <v>0.923</v>
+        <v>0</v>
       </c>
       <c r="G115" t="n">
         <v>0</v>
@@ -7499,7 +7499,7 @@
         <v>0</v>
       </c>
       <c r="L115" t="n">
-        <v>0.215</v>
+        <v>0.138</v>
       </c>
       <c r="M115" t="n">
         <v>0</v>
@@ -7542,7 +7542,7 @@
         <v>0.68</v>
       </c>
       <c r="F116" t="n">
-        <v>0.714</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="G116" t="n">
         <v>0</v>
@@ -7603,7 +7603,7 @@
         <v>0.509</v>
       </c>
       <c r="F117" t="n">
-        <v>0.449</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G117" t="n">
         <v>0</v>
@@ -7664,7 +7664,7 @@
         <v>0.46</v>
       </c>
       <c r="F118" t="n">
-        <v>0.61</v>
+        <v>0.246</v>
       </c>
       <c r="G118" t="n">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="L118" t="n">
-        <v>0.455</v>
+        <v>0.091</v>
       </c>
       <c r="M118" t="n">
         <v>0</v>
@@ -7725,7 +7725,7 @@
         <v>0.775</v>
       </c>
       <c r="F119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G119" t="n">
         <v>0</v>
@@ -7847,7 +7847,7 @@
         <v>0.473</v>
       </c>
       <c r="F121" t="n">
-        <v>0.375</v>
+        <v>0.125</v>
       </c>
       <c r="G121" t="n">
         <v>0</v>
@@ -7908,7 +7908,7 @@
         <v>0.441</v>
       </c>
       <c r="F122" t="n">
-        <v>0.403</v>
+        <v>0.117</v>
       </c>
       <c r="G122" t="n">
         <v>0</v>
@@ -7969,7 +7969,7 @@
         <v>0.8</v>
       </c>
       <c r="F123" t="n">
-        <v>0.836</v>
+        <v>0.436</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
@@ -8030,7 +8030,7 @@
         <v>0.448</v>
       </c>
       <c r="F124" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G124" t="n">
         <v>0</v>
@@ -8091,7 +8091,7 @@
         <v>0.899</v>
       </c>
       <c r="F125" t="n">
-        <v>0.911</v>
+        <v>0.125</v>
       </c>
       <c r="G125" t="n">
         <v>0</v>
@@ -8109,7 +8109,7 @@
         <v>0</v>
       </c>
       <c r="L125" t="n">
-        <v>0.319</v>
+        <v>0.248</v>
       </c>
       <c r="M125" t="n">
         <v>0</v>
@@ -8170,7 +8170,7 @@
         <v>0</v>
       </c>
       <c r="L126" t="n">
-        <v>0.167</v>
+        <v>0.067</v>
       </c>
       <c r="M126" t="n">
         <v>0</v>
@@ -8213,7 +8213,7 @@
         <v>0.5</v>
       </c>
       <c r="F127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>0</v>
       </c>
       <c r="L128" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
       <c r="M128" t="n">
         <v>0</v>
@@ -8335,7 +8335,7 @@
         <v>0.882</v>
       </c>
       <c r="F129" t="n">
-        <v>0.88</v>
+        <v>0.131</v>
       </c>
       <c r="G129" t="n">
         <v>0</v>
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="L129" t="n">
-        <v>0.375</v>
+        <v>0.25</v>
       </c>
       <c r="M129" t="n">
         <v>0</v>
@@ -8396,7 +8396,7 @@
         <v>0.786</v>
       </c>
       <c r="F130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G130" t="n">
         <v>0</v>
@@ -8457,7 +8457,7 @@
         <v>0.182</v>
       </c>
       <c r="F131" t="n">
-        <v>0.176</v>
+        <v>0</v>
       </c>
       <c r="G131" t="n">
         <v>0</v>
@@ -8475,7 +8475,7 @@
         <v>0</v>
       </c>
       <c r="L131" t="n">
-        <v>0.044</v>
+        <v>0.015</v>
       </c>
       <c r="M131" t="n">
         <v>0</v>
@@ -8640,7 +8640,7 @@
         <v>0.306</v>
       </c>
       <c r="F134" t="n">
-        <v>0.158</v>
+        <v>0</v>
       </c>
       <c r="G134" t="n">
         <v>0</v>
@@ -8658,7 +8658,7 @@
         <v>0</v>
       </c>
       <c r="L134" t="n">
-        <v>0.105</v>
+        <v>0</v>
       </c>
       <c r="M134" t="n">
         <v>0</v>
@@ -8701,7 +8701,7 @@
         <v>0.792</v>
       </c>
       <c r="F135" t="n">
-        <v>0.167</v>
+        <v>0</v>
       </c>
       <c r="G135" t="n">
         <v>0</v>
@@ -8762,7 +8762,7 @@
         <v>0.162</v>
       </c>
       <c r="F136" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="G136" t="n">
         <v>0</v>
@@ -8823,7 +8823,7 @@
         <v>0.278</v>
       </c>
       <c r="F137" t="n">
-        <v>0.665</v>
+        <v>0.331</v>
       </c>
       <c r="G137" t="n">
         <v>0</v>
@@ -8841,7 +8841,7 @@
         <v>0</v>
       </c>
       <c r="L137" t="n">
-        <v>0.378</v>
+        <v>0.267</v>
       </c>
       <c r="M137" t="n">
         <v>0</v>
@@ -8884,7 +8884,7 @@
         <v>0.341</v>
       </c>
       <c r="F138" t="n">
-        <v>0.299</v>
+        <v>0.014</v>
       </c>
       <c r="G138" t="n">
         <v>0</v>
@@ -8945,7 +8945,7 @@
         <v>0.278</v>
       </c>
       <c r="F139" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G139" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>0.625</v>
       </c>
       <c r="F140" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G140" t="n">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="L140" t="n">
-        <v>0.167</v>
+        <v>0</v>
       </c>
       <c r="M140" t="n">
         <v>0</v>
@@ -9067,7 +9067,7 @@
         <v>0.405</v>
       </c>
       <c r="F141" t="n">
-        <v>0.167</v>
+        <v>0</v>
       </c>
       <c r="G141" t="n">
         <v>0</v>
@@ -9128,7 +9128,7 @@
         <v>0.737</v>
       </c>
       <c r="F142" t="n">
-        <v>1</v>
+        <v>0.091</v>
       </c>
       <c r="G142" t="n">
         <v>0</v>
@@ -9146,7 +9146,7 @@
         <v>0</v>
       </c>
       <c r="L142" t="n">
-        <v>0.227</v>
+        <v>0.136</v>
       </c>
       <c r="M142" t="n">
         <v>0</v>
@@ -9189,7 +9189,7 @@
         <v>0.914</v>
       </c>
       <c r="F143" t="n">
-        <v>0.635</v>
+        <v>0.385</v>
       </c>
       <c r="G143" t="n">
         <v>0</v>
@@ -9250,7 +9250,7 @@
         <v>0.744</v>
       </c>
       <c r="F144" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G144" t="n">
         <v>0</v>
@@ -9311,7 +9311,7 @@
         <v>0.6830000000000001</v>
       </c>
       <c r="F145" t="n">
-        <v>0.666</v>
+        <v>0.09</v>
       </c>
       <c r="G145" t="n">
         <v>0</v>
@@ -9329,7 +9329,7 @@
         <v>0</v>
       </c>
       <c r="L145" t="n">
-        <v>0.194</v>
+        <v>0.012</v>
       </c>
       <c r="M145" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>0.709</v>
       </c>
       <c r="F146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G146" t="n">
         <v>0</v>
@@ -9494,7 +9494,7 @@
         <v>0.349</v>
       </c>
       <c r="F148" t="n">
-        <v>0.446</v>
+        <v>0.208</v>
       </c>
       <c r="G148" t="n">
         <v>0</v>
@@ -9555,7 +9555,7 @@
         <v>0.316</v>
       </c>
       <c r="F149" t="n">
-        <v>0.587</v>
+        <v>0.387</v>
       </c>
       <c r="G149" t="n">
         <v>0</v>
@@ -9616,7 +9616,7 @@
         <v>0.33</v>
       </c>
       <c r="F150" t="n">
-        <v>0.5669999999999999</v>
+        <v>0</v>
       </c>
       <c r="G150" t="n">
         <v>0</v>
@@ -9634,7 +9634,7 @@
         <v>0</v>
       </c>
       <c r="L150" t="n">
-        <v>0.267</v>
+        <v>0.133</v>
       </c>
       <c r="M150" t="n">
         <v>0</v>
@@ -9677,7 +9677,7 @@
         <v>0.634</v>
       </c>
       <c r="F151" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G151" t="n">
         <v>0</v>
@@ -9695,7 +9695,7 @@
         <v>0</v>
       </c>
       <c r="L151" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="M151" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0.107</v>
       </c>
       <c r="F152" t="n">
-        <v>0.067</v>
+        <v>0</v>
       </c>
       <c r="G152" t="n">
         <v>0</v>
@@ -9817,7 +9817,7 @@
         <v>0</v>
       </c>
       <c r="L153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M153" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L154" t="n">
-        <v>0.292</v>
+        <v>0.167</v>
       </c>
       <c r="M154" t="n">
         <v>0</v>
@@ -9921,7 +9921,7 @@
         <v>0.722</v>
       </c>
       <c r="F155" t="n">
-        <v>0.923</v>
+        <v>0</v>
       </c>
       <c r="G155" t="n">
         <v>0</v>
@@ -9939,7 +9939,7 @@
         <v>0</v>
       </c>
       <c r="L155" t="n">
-        <v>0.154</v>
+        <v>0.077</v>
       </c>
       <c r="M155" t="n">
         <v>0</v>
@@ -9982,7 +9982,7 @@
         <v>0.534</v>
       </c>
       <c r="F156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G156" t="n">
         <v>0</v>
@@ -10043,7 +10043,7 @@
         <v>0.22</v>
       </c>
       <c r="F157" t="n">
-        <v>0.167</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="G157" t="n">
         <v>0</v>
@@ -10061,7 +10061,7 @@
         <v>0</v>
       </c>
       <c r="L157" t="n">
-        <v>0.391</v>
+        <v>0.231</v>
       </c>
       <c r="M157" t="n">
         <v>0</v>
@@ -10104,7 +10104,7 @@
         <v>0.696</v>
       </c>
       <c r="F158" t="n">
-        <v>0.491</v>
+        <v>0.324</v>
       </c>
       <c r="G158" t="n">
         <v>0</v>
@@ -10165,7 +10165,7 @@
         <v>0.6889999999999999</v>
       </c>
       <c r="F159" t="n">
-        <v>0.945</v>
+        <v>0.111</v>
       </c>
       <c r="G159" t="n">
         <v>0</v>
@@ -10226,7 +10226,7 @@
         <v>0.371</v>
       </c>
       <c r="F160" t="n">
-        <v>0.367</v>
+        <v>0.033</v>
       </c>
       <c r="G160" t="n">
         <v>0</v>
@@ -10244,7 +10244,7 @@
         <v>0</v>
       </c>
       <c r="L160" t="n">
-        <v>0.333</v>
+        <v>0.167</v>
       </c>
       <c r="M160" t="n">
         <v>0</v>
@@ -10287,7 +10287,7 @@
         <v>0.536</v>
       </c>
       <c r="F161" t="n">
-        <v>0.787</v>
+        <v>0.412</v>
       </c>
       <c r="G161" t="n">
         <v>0</v>
@@ -10409,7 +10409,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.889</v>
+        <v>0.556</v>
       </c>
       <c r="G163" t="n">
         <v>0</v>
@@ -10470,7 +10470,7 @@
         <v>0.583</v>
       </c>
       <c r="F164" t="n">
-        <v>0.401</v>
+        <v>0.178</v>
       </c>
       <c r="G164" t="n">
         <v>0</v>
@@ -10531,7 +10531,7 @@
         <v>0.751</v>
       </c>
       <c r="F165" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G165" t="n">
         <v>0</v>
@@ -10549,7 +10549,7 @@
         <v>0</v>
       </c>
       <c r="L165" t="n">
-        <v>0.417</v>
+        <v>0.167</v>
       </c>
       <c r="M165" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0.547</v>
       </c>
       <c r="F166" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G166" t="n">
         <v>0</v>
@@ -10653,7 +10653,7 @@
         <v>0.902</v>
       </c>
       <c r="F167" t="n">
-        <v>0.825</v>
+        <v>0.254</v>
       </c>
       <c r="G167" t="n">
         <v>0</v>
@@ -10671,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="L167" t="n">
-        <v>0.524</v>
+        <v>0.238</v>
       </c>
       <c r="M167" t="n">
         <v>0</v>
@@ -10714,7 +10714,7 @@
         <v>0.701</v>
       </c>
       <c r="F168" t="n">
-        <v>0.452</v>
+        <v>0.294</v>
       </c>
       <c r="G168" t="n">
         <v>0</v>
@@ -10732,7 +10732,7 @@
         <v>0</v>
       </c>
       <c r="L168" t="n">
-        <v>0.34</v>
+        <v>0.288</v>
       </c>
       <c r="M168" t="n">
         <v>0</v>
@@ -10775,7 +10775,7 @@
         <v>0.792</v>
       </c>
       <c r="F169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G169" t="n">
         <v>0</v>
@@ -10836,7 +10836,7 @@
         <v>0.379</v>
       </c>
       <c r="F170" t="n">
-        <v>0.767</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="G170" t="n">
         <v>0</v>
@@ -10897,7 +10897,7 @@
         <v>0.553</v>
       </c>
       <c r="F171" t="n">
-        <v>0.373</v>
+        <v>0.018</v>
       </c>
       <c r="G171" t="n">
         <v>0</v>
@@ -10915,7 +10915,7 @@
         <v>0</v>
       </c>
       <c r="L171" t="n">
-        <v>0.274</v>
+        <v>0.048</v>
       </c>
       <c r="M171" t="n">
         <v>0</v>
@@ -10958,7 +10958,7 @@
         <v>0.194</v>
       </c>
       <c r="F172" t="n">
-        <v>0.619</v>
+        <v>0.286</v>
       </c>
       <c r="G172" t="n">
         <v>0</v>
@@ -11019,7 +11019,7 @@
         <v>0.513</v>
       </c>
       <c r="F173" t="n">
-        <v>0.583</v>
+        <v>0</v>
       </c>
       <c r="G173" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>0.25</v>
       </c>
       <c r="F174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G174" t="n">
         <v>0</v>
@@ -11263,7 +11263,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="F177" t="n">
-        <v>0.903</v>
+        <v>0.503</v>
       </c>
       <c r="G177" t="n">
         <v>0</v>
@@ -11324,7 +11324,7 @@
         <v>0.76</v>
       </c>
       <c r="F178" t="n">
-        <v>0.538</v>
+        <v>0</v>
       </c>
       <c r="G178" t="n">
         <v>0</v>
@@ -11342,7 +11342,7 @@
         <v>0</v>
       </c>
       <c r="L178" t="n">
-        <v>0.385</v>
+        <v>0.154</v>
       </c>
       <c r="M178" t="n">
         <v>0</v>
@@ -11385,7 +11385,7 @@
         <v>0.45</v>
       </c>
       <c r="F179" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G179" t="n">
         <v>0</v>
@@ -11403,7 +11403,7 @@
         <v>0</v>
       </c>
       <c r="L179" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
       <c r="M179" t="n">
         <v>0</v>
@@ -11507,7 +11507,7 @@
         <v>0.201</v>
       </c>
       <c r="F181" t="n">
-        <v>0.091</v>
+        <v>0</v>
       </c>
       <c r="G181" t="n">
         <v>0</v>
@@ -11568,7 +11568,7 @@
         <v>0.752</v>
       </c>
       <c r="F182" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="G182" t="n">
         <v>0</v>
@@ -11586,7 +11586,7 @@
         <v>0</v>
       </c>
       <c r="L182" t="n">
-        <v>0.208</v>
+        <v>0.083</v>
       </c>
       <c r="M182" t="n">
         <v>0</v>
@@ -11629,7 +11629,7 @@
         <v>0.955</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9419999999999999</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="G183" t="n">
         <v>0</v>
@@ -11751,7 +11751,7 @@
         <v>0.474</v>
       </c>
       <c r="F185" t="n">
-        <v>0.833</v>
+        <v>0</v>
       </c>
       <c r="G185" t="n">
         <v>0</v>
@@ -11769,7 +11769,7 @@
         <v>0</v>
       </c>
       <c r="L185" t="n">
-        <v>0.25</v>
+        <v>0.083</v>
       </c>
       <c r="M185" t="n">
         <v>0</v>
@@ -11812,7 +11812,7 @@
         <v>0.575</v>
       </c>
       <c r="F186" t="n">
-        <v>0.605</v>
+        <v>0.09</v>
       </c>
       <c r="G186" t="n">
         <v>0</v>
@@ -11830,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="L186" t="n">
-        <v>0.294</v>
+        <v>0.094</v>
       </c>
       <c r="M186" t="n">
         <v>0</v>
@@ -11873,7 +11873,7 @@
         <v>0.571</v>
       </c>
       <c r="F187" t="n">
-        <v>0.789</v>
+        <v>0.053</v>
       </c>
       <c r="G187" t="n">
         <v>0</v>
@@ -11891,7 +11891,7 @@
         <v>0</v>
       </c>
       <c r="L187" t="n">
-        <v>0.288</v>
+        <v>0.235</v>
       </c>
       <c r="M187" t="n">
         <v>0</v>
@@ -11995,7 +11995,7 @@
         <v>0.417</v>
       </c>
       <c r="F189" t="n">
-        <v>0.667</v>
+        <v>0</v>
       </c>
       <c r="G189" t="n">
         <v>0</v>
@@ -12056,7 +12056,7 @@
         <v>0.608</v>
       </c>
       <c r="F190" t="n">
-        <v>0.53</v>
+        <v>0.184</v>
       </c>
       <c r="G190" t="n">
         <v>0</v>
@@ -12074,7 +12074,7 @@
         <v>0</v>
       </c>
       <c r="L190" t="n">
-        <v>0.099</v>
+        <v>0.061</v>
       </c>
       <c r="M190" t="n">
         <v>0</v>
@@ -12117,7 +12117,7 @@
         <v>0.235</v>
       </c>
       <c r="F191" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G191" t="n">
         <v>0</v>
@@ -12239,7 +12239,7 @@
         <v>0.166</v>
       </c>
       <c r="F193" t="n">
-        <v>0.062</v>
+        <v>0</v>
       </c>
       <c r="G193" t="n">
         <v>0</v>
@@ -12257,7 +12257,7 @@
         <v>0</v>
       </c>
       <c r="L193" t="n">
-        <v>0.062</v>
+        <v>0</v>
       </c>
       <c r="M193" t="n">
         <v>0</v>
@@ -12300,7 +12300,7 @@
         <v>0.416</v>
       </c>
       <c r="F194" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.317</v>
       </c>
       <c r="G194" t="n">
         <v>0</v>
@@ -12318,7 +12318,7 @@
         <v>0</v>
       </c>
       <c r="L194" t="n">
-        <v>0.167</v>
+        <v>0.067</v>
       </c>
       <c r="M194" t="n">
         <v>0</v>
@@ -12361,7 +12361,7 @@
         <v>0.838</v>
       </c>
       <c r="F195" t="n">
-        <v>0.444</v>
+        <v>0.278</v>
       </c>
       <c r="G195" t="n">
         <v>0</v>
@@ -12483,7 +12483,7 @@
         <v>0.508</v>
       </c>
       <c r="F197" t="n">
-        <v>0.54</v>
+        <v>0.29</v>
       </c>
       <c r="G197" t="n">
         <v>0</v>
@@ -12501,7 +12501,7 @@
         <v>0</v>
       </c>
       <c r="L197" t="n">
-        <v>0.482</v>
+        <v>0.232</v>
       </c>
       <c r="M197" t="n">
         <v>0</v>
@@ -12544,7 +12544,7 @@
         <v>0.867</v>
       </c>
       <c r="F198" t="n">
-        <v>0.837</v>
+        <v>0.265</v>
       </c>
       <c r="G198" t="n">
         <v>0</v>
@@ -12562,7 +12562,7 @@
         <v>0</v>
       </c>
       <c r="L198" t="n">
-        <v>0.571</v>
+        <v>0.143</v>
       </c>
       <c r="M198" t="n">
         <v>0</v>
@@ -12605,7 +12605,7 @@
         <v>0.432</v>
       </c>
       <c r="F199" t="n">
-        <v>0.311</v>
+        <v>0.047</v>
       </c>
       <c r="G199" t="n">
         <v>0</v>
@@ -12623,7 +12623,7 @@
         <v>0</v>
       </c>
       <c r="L199" t="n">
-        <v>0.395</v>
+        <v>0.132</v>
       </c>
       <c r="M199" t="n">
         <v>0</v>
@@ -12722,7 +12722,7 @@
         <v>0.533</v>
       </c>
       <c r="F201" t="n">
-        <v>0.532</v>
+        <v>0.144</v>
       </c>
       <c r="G201" t="n">
         <v>0</v>
@@ -12740,7 +12740,7 @@
         <v>0</v>
       </c>
       <c r="L201" t="n">
-        <v>0.283</v>
+        <v>0.218</v>
       </c>
       <c r="M201" t="n">
         <v>0</v>
@@ -12783,7 +12783,7 @@
         <v>0.536</v>
       </c>
       <c r="F202" t="n">
-        <v>0.528</v>
+        <v>0.014</v>
       </c>
       <c r="G202" t="n">
         <v>0</v>
@@ -12801,7 +12801,7 @@
         <v>0</v>
       </c>
       <c r="L202" t="n">
-        <v>0.25</v>
+        <v>0.153</v>
       </c>
       <c r="M202" t="n">
         <v>0</v>
@@ -12844,7 +12844,7 @@
         <v>0.249</v>
       </c>
       <c r="F203" t="n">
-        <v>0.315</v>
+        <v>0.222</v>
       </c>
       <c r="G203" t="n">
         <v>0</v>
@@ -12862,7 +12862,7 @@
         <v>0</v>
       </c>
       <c r="L203" t="n">
-        <v>0.222</v>
+        <v>0.22</v>
       </c>
       <c r="M203" t="n">
         <v>0</v>
@@ -13031,7 +13031,7 @@
         <v>0.504</v>
       </c>
       <c r="F2" t="n">
-        <v>0.615</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -13092,7 +13092,7 @@
         <v>0.677</v>
       </c>
       <c r="F3" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -13110,7 +13110,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -13153,7 +13153,7 @@
         <v>0.33</v>
       </c>
       <c r="F4" t="n">
-        <v>0.282</v>
+        <v>0.055</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -13214,7 +13214,7 @@
         <v>0.993</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.333</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -13275,7 +13275,7 @@
         <v>0.5</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -13336,7 +13336,7 @@
         <v>0.556</v>
       </c>
       <c r="F7" t="n">
-        <v>0.667</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -13458,7 +13458,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -13519,7 +13519,7 @@
         <v>0.083</v>
       </c>
       <c r="F10" t="n">
-        <v>0.111</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -13580,7 +13580,7 @@
         <v>0.668</v>
       </c>
       <c r="F11" t="n">
-        <v>0.762</v>
+        <v>0.333</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -13702,7 +13702,7 @@
         <v>0.788</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -13720,7 +13720,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.625</v>
+        <v>0.25</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -13763,7 +13763,7 @@
         <v>0.718</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6919999999999999</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -13781,7 +13781,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0.231</v>
+        <v>0.077</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -13885,7 +13885,7 @@
         <v>0.59</v>
       </c>
       <c r="F16" t="n">
-        <v>0.745</v>
+        <v>0.602</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -13903,7 +13903,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0.571</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -13946,7 +13946,7 @@
         <v>0.9330000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>0.963</v>
+        <v>0.296</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -14007,7 +14007,7 @@
         <v>0.6919999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>0.923</v>
+        <v>0.077</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -14025,7 +14025,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0.231</v>
+        <v>0.077</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -14068,7 +14068,7 @@
         <v>0.444</v>
       </c>
       <c r="F19" t="n">
-        <v>0.718</v>
+        <v>0.064</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -14086,7 +14086,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0.288</v>
+        <v>0.019</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -14129,7 +14129,7 @@
         <v>0.792</v>
       </c>
       <c r="F20" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -14190,7 +14190,7 @@
         <v>0.649</v>
       </c>
       <c r="F21" t="n">
-        <v>0.571</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -14251,7 +14251,7 @@
         <v>0.5590000000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -14269,7 +14269,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0.188</v>
+        <v>0.125</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -14312,7 +14312,7 @@
         <v>0.614</v>
       </c>
       <c r="F23" t="n">
-        <v>0.727</v>
+        <v>0.364</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -14330,7 +14330,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0.288</v>
+        <v>0.106</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -14373,7 +14373,7 @@
         <v>0.732</v>
       </c>
       <c r="F24" t="n">
-        <v>0.864</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -14391,7 +14391,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0.212</v>
+        <v>0.167</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -14434,7 +14434,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.834</v>
+        <v>0.334</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -14495,7 +14495,7 @@
         <v>0.399</v>
       </c>
       <c r="F26" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -14513,7 +14513,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0.167</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -14556,7 +14556,7 @@
         <v>0.9429999999999999</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0.333</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -14617,7 +14617,7 @@
         <v>0.662</v>
       </c>
       <c r="F28" t="n">
-        <v>0.435</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -14678,7 +14678,7 @@
         <v>0.52</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -14696,7 +14696,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0.338</v>
+        <v>0.271</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -14739,7 +14739,7 @@
         <v>0.674</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.311</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -14800,7 +14800,7 @@
         <v>0.305</v>
       </c>
       <c r="F31" t="n">
-        <v>0.614</v>
+        <v>0.239</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -14861,7 +14861,7 @@
         <v>0.469</v>
       </c>
       <c r="F32" t="n">
-        <v>0.631</v>
+        <v>0.431</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -14922,7 +14922,7 @@
         <v>0.82</v>
       </c>
       <c r="F33" t="n">
-        <v>0.766</v>
+        <v>0.039</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -14940,7 +14940,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0.314</v>
+        <v>0.133</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -14983,7 +14983,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -15044,7 +15044,7 @@
         <v>0.833</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -15105,7 +15105,7 @@
         <v>0.757</v>
       </c>
       <c r="F36" t="n">
-        <v>0.857</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -15123,7 +15123,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0.571</v>
+        <v>0.143</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -15288,7 +15288,7 @@
         <v>0.35</v>
       </c>
       <c r="F39" t="n">
-        <v>0.421</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -15306,7 +15306,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0.184</v>
+        <v>0.053</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -15349,7 +15349,7 @@
         <v>0.381</v>
       </c>
       <c r="F40" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -15471,7 +15471,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -15532,7 +15532,7 @@
         <v>0.458</v>
       </c>
       <c r="F43" t="n">
-        <v>0.6840000000000001</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -15550,7 +15550,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.211</v>
+        <v>0.158</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -15593,7 +15593,7 @@
         <v>0.834</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -15654,7 +15654,7 @@
         <v>0.439</v>
       </c>
       <c r="F45" t="n">
-        <v>0.37</v>
+        <v>0.037</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -15715,7 +15715,7 @@
         <v>0.53</v>
       </c>
       <c r="F46" t="n">
-        <v>0.643</v>
+        <v>0.31</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -15733,7 +15733,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -15837,7 +15837,7 @@
         <v>0.75</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -15898,7 +15898,7 @@
         <v>0.5590000000000001</v>
       </c>
       <c r="F49" t="n">
-        <v>0.923</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -15916,7 +15916,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>0.179</v>
+        <v>0.103</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
@@ -15959,7 +15959,7 @@
         <v>0.485</v>
       </c>
       <c r="F50" t="n">
-        <v>0.825</v>
+        <v>0.035</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -15977,7 +15977,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>0.105</v>
+        <v>0.053</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
@@ -16020,7 +16020,7 @@
         <v>0.875</v>
       </c>
       <c r="F51" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -16142,7 +16142,7 @@
         <v>0.781</v>
       </c>
       <c r="F53" t="n">
-        <v>0.889</v>
+        <v>0.167</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -16160,7 +16160,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>0.333</v>
+        <v>0.056</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
@@ -16203,7 +16203,7 @@
         <v>0.382</v>
       </c>
       <c r="F54" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -16264,7 +16264,7 @@
         <v>0.729</v>
       </c>
       <c r="F55" t="n">
-        <v>0.847</v>
+        <v>0.214</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -16282,7 +16282,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>0.391</v>
+        <v>0.191</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
@@ -16325,7 +16325,7 @@
         <v>0.825</v>
       </c>
       <c r="F56" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -16386,7 +16386,7 @@
         <v>0.841</v>
       </c>
       <c r="F57" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -16569,7 +16569,7 @@
         <v>0.637</v>
       </c>
       <c r="F60" t="n">
-        <v>0.63</v>
+        <v>0.156</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -16587,7 +16587,7 @@
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>0.202</v>
+        <v>0.097</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
@@ -16630,7 +16630,7 @@
         <v>0.873</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -16648,7 +16648,7 @@
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.312</v>
       </c>
       <c r="M61" t="n">
         <v>0</v>
@@ -16691,7 +16691,7 @@
         <v>0.412</v>
       </c>
       <c r="F62" t="n">
-        <v>0.353</v>
+        <v>0.118</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -16831,7 +16831,7 @@
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
@@ -16874,7 +16874,7 @@
         <v>0.636</v>
       </c>
       <c r="F65" t="n">
-        <v>0.667</v>
+        <v>0.333</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -16935,7 +16935,7 @@
         <v>0.456</v>
       </c>
       <c r="F66" t="n">
-        <v>0.646</v>
+        <v>0.479</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -16996,7 +16996,7 @@
         <v>0.729</v>
       </c>
       <c r="F67" t="n">
-        <v>0.778</v>
+        <v>0.222</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -17057,7 +17057,7 @@
         <v>0.6879999999999999</v>
       </c>
       <c r="F68" t="n">
-        <v>0.619</v>
+        <v>0.333</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -17075,7 +17075,7 @@
         <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>0.327</v>
+        <v>0.041</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
@@ -17240,7 +17240,7 @@
         <v>0.6830000000000001</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -17362,7 +17362,7 @@
         <v>0.705</v>
       </c>
       <c r="F73" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.524</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -17380,7 +17380,7 @@
         <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>0.286</v>
+        <v>0.143</v>
       </c>
       <c r="M73" t="n">
         <v>0</v>
@@ -17484,7 +17484,7 @@
         <v>0.853</v>
       </c>
       <c r="F75" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -17545,7 +17545,7 @@
         <v>0.715</v>
       </c>
       <c r="F76" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -17563,7 +17563,7 @@
         <v>0</v>
       </c>
       <c r="L76" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M76" t="n">
         <v>0</v>
@@ -17606,7 +17606,7 @@
         <v>0.4</v>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -17667,7 +17667,7 @@
         <v>0.821</v>
       </c>
       <c r="F78" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -17728,7 +17728,7 @@
         <v>0.516</v>
       </c>
       <c r="F79" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -17746,7 +17746,7 @@
         <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>0.475</v>
+        <v>0.325</v>
       </c>
       <c r="M79" t="n">
         <v>0</v>
@@ -17789,7 +17789,7 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -17850,7 +17850,7 @@
         <v>0.394</v>
       </c>
       <c r="F81" t="n">
-        <v>0.517</v>
+        <v>0.117</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -17868,7 +17868,7 @@
         <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>0.167</v>
+        <v>0.067</v>
       </c>
       <c r="M81" t="n">
         <v>0</v>
@@ -17911,7 +17911,7 @@
         <v>0.251</v>
       </c>
       <c r="F82" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -17972,7 +17972,7 @@
         <v>0.4</v>
       </c>
       <c r="F83" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -17990,7 +17990,7 @@
         <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>0.367</v>
+        <v>0.167</v>
       </c>
       <c r="M83" t="n">
         <v>0</v>
@@ -18051,7 +18051,7 @@
         <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>0.222</v>
+        <v>0</v>
       </c>
       <c r="M84" t="n">
         <v>0</v>
@@ -18094,7 +18094,7 @@
         <v>0.542</v>
       </c>
       <c r="F85" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -18155,7 +18155,7 @@
         <v>0.983</v>
       </c>
       <c r="F86" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -18216,7 +18216,7 @@
         <v>0.777</v>
       </c>
       <c r="F87" t="n">
-        <v>0.769</v>
+        <v>0.269</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -18234,7 +18234,7 @@
         <v>0</v>
       </c>
       <c r="L87" t="n">
-        <v>0.139</v>
+        <v>0.056</v>
       </c>
       <c r="M87" t="n">
         <v>0</v>
@@ -18277,7 +18277,7 @@
         <v>0.633</v>
       </c>
       <c r="F88" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -18338,7 +18338,7 @@
         <v>0.507</v>
       </c>
       <c r="F89" t="n">
-        <v>0.588</v>
+        <v>0.059</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -18356,7 +18356,7 @@
         <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>0.588</v>
+        <v>0.059</v>
       </c>
       <c r="M89" t="n">
         <v>0</v>
@@ -18460,7 +18460,7 @@
         <v>0.614</v>
       </c>
       <c r="F91" t="n">
-        <v>0.833</v>
+        <v>0.111</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -18478,7 +18478,7 @@
         <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>0.389</v>
+        <v>0.222</v>
       </c>
       <c r="M91" t="n">
         <v>0</v>
@@ -18582,7 +18582,7 @@
         <v>0.824</v>
       </c>
       <c r="F93" t="n">
-        <v>0.875</v>
+        <v>0.125</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -18643,7 +18643,7 @@
         <v>0.258</v>
       </c>
       <c r="F94" t="n">
-        <v>0.167</v>
+        <v>0</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -18704,7 +18704,7 @@
         <v>0.383</v>
       </c>
       <c r="F95" t="n">
-        <v>0.367</v>
+        <v>0.067</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
@@ -18722,7 +18722,7 @@
         <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M95" t="n">
         <v>0</v>
@@ -18765,7 +18765,7 @@
         <v>0.5580000000000001</v>
       </c>
       <c r="F96" t="n">
-        <v>0.6820000000000001</v>
+        <v>0.035</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
@@ -18783,7 +18783,7 @@
         <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>0.305</v>
+        <v>0.011</v>
       </c>
       <c r="M96" t="n">
         <v>0</v>
@@ -18826,7 +18826,7 @@
         <v>0.625</v>
       </c>
       <c r="F97" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
@@ -18887,7 +18887,7 @@
         <v>0.639</v>
       </c>
       <c r="F98" t="n">
-        <v>0.98</v>
+        <v>0.123</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
@@ -18905,7 +18905,7 @@
         <v>0</v>
       </c>
       <c r="L98" t="n">
-        <v>0.675</v>
+        <v>0.39</v>
       </c>
       <c r="M98" t="n">
         <v>0</v>
@@ -19070,7 +19070,7 @@
         <v>0.098</v>
       </c>
       <c r="F101" t="n">
-        <v>0.352</v>
+        <v>0.102</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
@@ -19131,7 +19131,7 @@
         <v>0.775</v>
       </c>
       <c r="F102" t="n">
-        <v>0.829</v>
+        <v>0.408</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
@@ -19149,7 +19149,7 @@
         <v>0</v>
       </c>
       <c r="L102" t="n">
-        <v>0.158</v>
+        <v>0.053</v>
       </c>
       <c r="M102" t="n">
         <v>0</v>
@@ -19192,7 +19192,7 @@
         <v>0.794</v>
       </c>
       <c r="F103" t="n">
-        <v>0.757</v>
+        <v>0.303</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
@@ -19314,7 +19314,7 @@
         <v>0.75</v>
       </c>
       <c r="F105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G105" t="n">
         <v>0</v>
@@ -19375,7 +19375,7 @@
         <v>0.521</v>
       </c>
       <c r="F106" t="n">
-        <v>0.714</v>
+        <v>0</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
@@ -19393,7 +19393,7 @@
         <v>0</v>
       </c>
       <c r="L106" t="n">
-        <v>0.286</v>
+        <v>0.214</v>
       </c>
       <c r="M106" t="n">
         <v>0</v>
@@ -19436,7 +19436,7 @@
         <v>0.571</v>
       </c>
       <c r="F107" t="n">
-        <v>0.882</v>
+        <v>0.059</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
@@ -19454,7 +19454,7 @@
         <v>0</v>
       </c>
       <c r="L107" t="n">
-        <v>0.059</v>
+        <v>0</v>
       </c>
       <c r="M107" t="n">
         <v>0</v>
@@ -19497,7 +19497,7 @@
         <v>0.694</v>
       </c>
       <c r="F108" t="n">
-        <v>0.895</v>
+        <v>0</v>
       </c>
       <c r="G108" t="n">
         <v>0</v>
@@ -19515,7 +19515,7 @@
         <v>0</v>
       </c>
       <c r="L108" t="n">
-        <v>0.246</v>
+        <v>0.193</v>
       </c>
       <c r="M108" t="n">
         <v>0</v>
@@ -19558,7 +19558,7 @@
         <v>0.537</v>
       </c>
       <c r="F109" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.078</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
@@ -19576,7 +19576,7 @@
         <v>0</v>
       </c>
       <c r="L109" t="n">
-        <v>0.384</v>
+        <v>0.08</v>
       </c>
       <c r="M109" t="n">
         <v>0</v>
@@ -19619,7 +19619,7 @@
         <v>0.855</v>
       </c>
       <c r="F110" t="n">
-        <v>1</v>
+        <v>0.091</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
@@ -19637,7 +19637,7 @@
         <v>0</v>
       </c>
       <c r="L110" t="n">
-        <v>0.333</v>
+        <v>0.061</v>
       </c>
       <c r="M110" t="n">
         <v>0</v>
@@ -19680,7 +19680,7 @@
         <v>0.926</v>
       </c>
       <c r="F111" t="n">
-        <v>0.857</v>
+        <v>0.798</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
@@ -19698,7 +19698,7 @@
         <v>0</v>
       </c>
       <c r="L111" t="n">
-        <v>0.386</v>
+        <v>0.327</v>
       </c>
       <c r="M111" t="n">
         <v>0</v>
@@ -19741,7 +19741,7 @@
         <v>0.428</v>
       </c>
       <c r="F112" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.043</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
@@ -19759,7 +19759,7 @@
         <v>0</v>
       </c>
       <c r="L112" t="n">
-        <v>0.143</v>
+        <v>0.095</v>
       </c>
       <c r="M112" t="n">
         <v>0</v>
@@ -19802,7 +19802,7 @@
         <v>0.507</v>
       </c>
       <c r="F113" t="n">
-        <v>0.652</v>
+        <v>0</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
@@ -19820,7 +19820,7 @@
         <v>0</v>
       </c>
       <c r="L113" t="n">
-        <v>0.133</v>
+        <v>0.09</v>
       </c>
       <c r="M113" t="n">
         <v>0</v>
@@ -19863,7 +19863,7 @@
         <v>0.6</v>
       </c>
       <c r="F114" t="n">
-        <v>0.667</v>
+        <v>0</v>
       </c>
       <c r="G114" t="n">
         <v>0</v>
@@ -19924,7 +19924,7 @@
         <v>0.833</v>
       </c>
       <c r="F115" t="n">
-        <v>0.923</v>
+        <v>0</v>
       </c>
       <c r="G115" t="n">
         <v>0</v>
@@ -19942,7 +19942,7 @@
         <v>0</v>
       </c>
       <c r="L115" t="n">
-        <v>0.077</v>
+        <v>0</v>
       </c>
       <c r="M115" t="n">
         <v>0</v>
@@ -19985,7 +19985,7 @@
         <v>0.681</v>
       </c>
       <c r="F116" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.048</v>
       </c>
       <c r="G116" t="n">
         <v>0</v>
@@ -20046,7 +20046,7 @@
         <v>0.5659999999999999</v>
       </c>
       <c r="F117" t="n">
-        <v>0.803</v>
+        <v>0.258</v>
       </c>
       <c r="G117" t="n">
         <v>0</v>
@@ -20107,7 +20107,7 @@
         <v>0.5679999999999999</v>
       </c>
       <c r="F118" t="n">
-        <v>0.375</v>
+        <v>0.042</v>
       </c>
       <c r="G118" t="n">
         <v>0</v>
@@ -20125,7 +20125,7 @@
         <v>0</v>
       </c>
       <c r="L118" t="n">
-        <v>0.25</v>
+        <v>0.083</v>
       </c>
       <c r="M118" t="n">
         <v>0</v>
@@ -20168,7 +20168,7 @@
         <v>0.952</v>
       </c>
       <c r="F119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G119" t="n">
         <v>0</v>
@@ -20290,7 +20290,7 @@
         <v>0.519</v>
       </c>
       <c r="F121" t="n">
-        <v>0.625</v>
+        <v>0.125</v>
       </c>
       <c r="G121" t="n">
         <v>0</v>
@@ -20351,7 +20351,7 @@
         <v>0.352</v>
       </c>
       <c r="F122" t="n">
-        <v>0.633</v>
+        <v>0.3</v>
       </c>
       <c r="G122" t="n">
         <v>0</v>
@@ -20412,7 +20412,7 @@
         <v>0.671</v>
       </c>
       <c r="F123" t="n">
-        <v>0.608</v>
+        <v>0.441</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
@@ -20473,7 +20473,7 @@
         <v>0.605</v>
       </c>
       <c r="F124" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
       <c r="G124" t="n">
         <v>0</v>
@@ -20534,7 +20534,7 @@
         <v>0.798</v>
       </c>
       <c r="F125" t="n">
-        <v>0.849</v>
+        <v>0.064</v>
       </c>
       <c r="G125" t="n">
         <v>0</v>
@@ -20552,7 +20552,7 @@
         <v>0</v>
       </c>
       <c r="L125" t="n">
-        <v>0.19</v>
+        <v>0.048</v>
       </c>
       <c r="M125" t="n">
         <v>0</v>
@@ -20656,7 +20656,7 @@
         <v>0.833</v>
       </c>
       <c r="F127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
@@ -20735,7 +20735,7 @@
         <v>0</v>
       </c>
       <c r="L128" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
       <c r="M128" t="n">
         <v>0</v>
@@ -20778,7 +20778,7 @@
         <v>0.909</v>
       </c>
       <c r="F129" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G129" t="n">
         <v>0</v>
@@ -20796,7 +20796,7 @@
         <v>0</v>
       </c>
       <c r="L129" t="n">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="M129" t="n">
         <v>0</v>
@@ -20839,7 +20839,7 @@
         <v>0.786</v>
       </c>
       <c r="F130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G130" t="n">
         <v>0</v>
@@ -20900,7 +20900,7 @@
         <v>0.162</v>
       </c>
       <c r="F131" t="n">
-        <v>0.206</v>
+        <v>0</v>
       </c>
       <c r="G131" t="n">
         <v>0</v>
@@ -20918,7 +20918,7 @@
         <v>0</v>
       </c>
       <c r="L131" t="n">
-        <v>0.029</v>
+        <v>0</v>
       </c>
       <c r="M131" t="n">
         <v>0</v>
@@ -21040,7 +21040,7 @@
         <v>0</v>
       </c>
       <c r="L133" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="M133" t="n">
         <v>0</v>
@@ -21083,7 +21083,7 @@
         <v>0.286</v>
       </c>
       <c r="F134" t="n">
-        <v>0.222</v>
+        <v>0</v>
       </c>
       <c r="G134" t="n">
         <v>0</v>
@@ -21101,7 +21101,7 @@
         <v>0</v>
       </c>
       <c r="L134" t="n">
-        <v>0.111</v>
+        <v>0</v>
       </c>
       <c r="M134" t="n">
         <v>0</v>
@@ -21144,7 +21144,7 @@
         <v>0.792</v>
       </c>
       <c r="F135" t="n">
-        <v>0.167</v>
+        <v>0</v>
       </c>
       <c r="G135" t="n">
         <v>0</v>
@@ -21205,7 +21205,7 @@
         <v>0.173</v>
       </c>
       <c r="F136" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="G136" t="n">
         <v>0</v>
@@ -21266,7 +21266,7 @@
         <v>0.636</v>
       </c>
       <c r="F137" t="n">
-        <v>0.773</v>
+        <v>0.373</v>
       </c>
       <c r="G137" t="n">
         <v>0</v>
@@ -21284,7 +21284,7 @@
         <v>0</v>
       </c>
       <c r="L137" t="n">
-        <v>0.373</v>
+        <v>0.273</v>
       </c>
       <c r="M137" t="n">
         <v>0</v>
@@ -21327,7 +21327,7 @@
         <v>0.518</v>
       </c>
       <c r="F138" t="n">
-        <v>0.349</v>
+        <v>0.015</v>
       </c>
       <c r="G138" t="n">
         <v>0</v>
@@ -21388,7 +21388,7 @@
         <v>0.542</v>
       </c>
       <c r="F139" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G139" t="n">
         <v>0</v>
@@ -21449,7 +21449,7 @@
         <v>0.625</v>
       </c>
       <c r="F140" t="n">
-        <v>0.833</v>
+        <v>0.167</v>
       </c>
       <c r="G140" t="n">
         <v>0</v>
@@ -21467,7 +21467,7 @@
         <v>0</v>
       </c>
       <c r="L140" t="n">
-        <v>0.167</v>
+        <v>0</v>
       </c>
       <c r="M140" t="n">
         <v>0</v>
@@ -21510,7 +21510,7 @@
         <v>0.444</v>
       </c>
       <c r="F141" t="n">
-        <v>0.167</v>
+        <v>0</v>
       </c>
       <c r="G141" t="n">
         <v>0</v>
@@ -21571,7 +21571,7 @@
         <v>0.73</v>
       </c>
       <c r="F142" t="n">
-        <v>1</v>
+        <v>0.091</v>
       </c>
       <c r="G142" t="n">
         <v>0</v>
@@ -21589,7 +21589,7 @@
         <v>0</v>
       </c>
       <c r="L142" t="n">
-        <v>0.273</v>
+        <v>0.182</v>
       </c>
       <c r="M142" t="n">
         <v>0</v>
@@ -21632,7 +21632,7 @@
         <v>0.912</v>
       </c>
       <c r="F143" t="n">
-        <v>0.917</v>
+        <v>0.667</v>
       </c>
       <c r="G143" t="n">
         <v>0</v>
@@ -21693,7 +21693,7 @@
         <v>0.857</v>
       </c>
       <c r="F144" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G144" t="n">
         <v>0</v>
@@ -21754,7 +21754,7 @@
         <v>0.659</v>
       </c>
       <c r="F145" t="n">
-        <v>0.643</v>
+        <v>0.143</v>
       </c>
       <c r="G145" t="n">
         <v>0</v>
@@ -21772,7 +21772,7 @@
         <v>0</v>
       </c>
       <c r="L145" t="n">
-        <v>0.18</v>
+        <v>0.013</v>
       </c>
       <c r="M145" t="n">
         <v>0</v>
@@ -21815,7 +21815,7 @@
         <v>0.738</v>
       </c>
       <c r="F146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G146" t="n">
         <v>0</v>
@@ -21937,7 +21937,7 @@
         <v>0.417</v>
       </c>
       <c r="F148" t="n">
-        <v>0.621</v>
+        <v>0.321</v>
       </c>
       <c r="G148" t="n">
         <v>0</v>
@@ -21998,7 +21998,7 @@
         <v>0.335</v>
       </c>
       <c r="F149" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="G149" t="n">
         <v>0</v>
@@ -22059,7 +22059,7 @@
         <v>0.366</v>
       </c>
       <c r="F150" t="n">
-        <v>0.607</v>
+        <v>0</v>
       </c>
       <c r="G150" t="n">
         <v>0</v>
@@ -22077,7 +22077,7 @@
         <v>0</v>
       </c>
       <c r="L150" t="n">
-        <v>0.381</v>
+        <v>0.131</v>
       </c>
       <c r="M150" t="n">
         <v>0</v>
@@ -22120,7 +22120,7 @@
         <v>0.8120000000000001</v>
       </c>
       <c r="F151" t="n">
-        <v>0.667</v>
+        <v>0</v>
       </c>
       <c r="G151" t="n">
         <v>0</v>
@@ -22138,7 +22138,7 @@
         <v>0</v>
       </c>
       <c r="L151" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
       <c r="M151" t="n">
         <v>0</v>
@@ -22181,7 +22181,7 @@
         <v>0.107</v>
       </c>
       <c r="F152" t="n">
-        <v>0.067</v>
+        <v>0</v>
       </c>
       <c r="G152" t="n">
         <v>0</v>
@@ -22260,7 +22260,7 @@
         <v>0</v>
       </c>
       <c r="L153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M153" t="n">
         <v>0</v>
@@ -22321,7 +22321,7 @@
         <v>0</v>
       </c>
       <c r="L154" t="n">
-        <v>0.312</v>
+        <v>0.188</v>
       </c>
       <c r="M154" t="n">
         <v>0</v>
@@ -22364,7 +22364,7 @@
         <v>0.792</v>
       </c>
       <c r="F155" t="n">
-        <v>0.917</v>
+        <v>0</v>
       </c>
       <c r="G155" t="n">
         <v>0</v>
@@ -22382,7 +22382,7 @@
         <v>0</v>
       </c>
       <c r="L155" t="n">
-        <v>0.167</v>
+        <v>0.083</v>
       </c>
       <c r="M155" t="n">
         <v>0</v>
@@ -22425,7 +22425,7 @@
         <v>0.75</v>
       </c>
       <c r="F156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G156" t="n">
         <v>0</v>
@@ -22486,7 +22486,7 @@
         <v>0.374</v>
       </c>
       <c r="F157" t="n">
-        <v>0.573</v>
+        <v>0.213</v>
       </c>
       <c r="G157" t="n">
         <v>0</v>
@@ -22504,7 +22504,7 @@
         <v>0</v>
       </c>
       <c r="L157" t="n">
-        <v>0.403</v>
+        <v>0.163</v>
       </c>
       <c r="M157" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="F158" t="n">
-        <v>0.363</v>
+        <v>0.196</v>
       </c>
       <c r="G158" t="n">
         <v>0</v>
@@ -22608,7 +22608,7 @@
         <v>0.789</v>
       </c>
       <c r="F159" t="n">
-        <v>0.945</v>
+        <v>0.111</v>
       </c>
       <c r="G159" t="n">
         <v>0</v>
@@ -22669,7 +22669,7 @@
         <v>0.443</v>
       </c>
       <c r="F160" t="n">
-        <v>0.636</v>
+        <v>0.091</v>
       </c>
       <c r="G160" t="n">
         <v>0</v>
@@ -22687,7 +22687,7 @@
         <v>0</v>
       </c>
       <c r="L160" t="n">
-        <v>0.273</v>
+        <v>0</v>
       </c>
       <c r="M160" t="n">
         <v>0</v>
@@ -22730,7 +22730,7 @@
         <v>0.606</v>
       </c>
       <c r="F161" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.292</v>
       </c>
       <c r="G161" t="n">
         <v>0</v>
@@ -22852,7 +22852,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>1</v>
+        <v>0.667</v>
       </c>
       <c r="G163" t="n">
         <v>0</v>
@@ -22913,7 +22913,7 @@
         <v>0.582</v>
       </c>
       <c r="F164" t="n">
-        <v>0.378</v>
+        <v>0.078</v>
       </c>
       <c r="G164" t="n">
         <v>0</v>
@@ -22931,7 +22931,7 @@
         <v>0</v>
       </c>
       <c r="L164" t="n">
-        <v>0.34</v>
+        <v>0.24</v>
       </c>
       <c r="M164" t="n">
         <v>0</v>
@@ -22974,7 +22974,7 @@
         <v>0.785</v>
       </c>
       <c r="F165" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="G165" t="n">
         <v>0</v>
@@ -22992,7 +22992,7 @@
         <v>0</v>
       </c>
       <c r="L165" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="M165" t="n">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         <v>0.547</v>
       </c>
       <c r="F166" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="G166" t="n">
         <v>0</v>
@@ -23096,7 +23096,7 @@
         <v>0.902</v>
       </c>
       <c r="F167" t="n">
-        <v>0.825</v>
+        <v>0.111</v>
       </c>
       <c r="G167" t="n">
         <v>0</v>
@@ -23114,7 +23114,7 @@
         <v>0</v>
       </c>
       <c r="L167" t="n">
-        <v>0.486</v>
+        <v>0.2</v>
       </c>
       <c r="M167" t="n">
         <v>0</v>
@@ -23157,7 +23157,7 @@
         <v>0.674</v>
       </c>
       <c r="F168" t="n">
-        <v>0.646</v>
+        <v>0.383</v>
       </c>
       <c r="G168" t="n">
         <v>0</v>
@@ -23175,7 +23175,7 @@
         <v>0</v>
       </c>
       <c r="L168" t="n">
-        <v>0.395</v>
+        <v>0.29</v>
       </c>
       <c r="M168" t="n">
         <v>0</v>
@@ -23218,7 +23218,7 @@
         <v>0.825</v>
       </c>
       <c r="F169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G169" t="n">
         <v>0</v>
@@ -23279,7 +23279,7 @@
         <v>0.288</v>
       </c>
       <c r="F170" t="n">
-        <v>0.628</v>
+        <v>0.295</v>
       </c>
       <c r="G170" t="n">
         <v>0</v>
@@ -23340,7 +23340,7 @@
         <v>0.5679999999999999</v>
       </c>
       <c r="F171" t="n">
-        <v>0.651</v>
+        <v>0.03</v>
       </c>
       <c r="G171" t="n">
         <v>0</v>
@@ -23358,7 +23358,7 @@
         <v>0</v>
       </c>
       <c r="L171" t="n">
-        <v>0.371</v>
+        <v>0.06</v>
       </c>
       <c r="M171" t="n">
         <v>0</v>
@@ -23401,7 +23401,7 @@
         <v>0.333</v>
       </c>
       <c r="F172" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
       <c r="G172" t="n">
         <v>0</v>
@@ -23462,7 +23462,7 @@
         <v>0.513</v>
       </c>
       <c r="F173" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="G173" t="n">
         <v>0</v>
@@ -23480,7 +23480,7 @@
         <v>0</v>
       </c>
       <c r="L173" t="n">
-        <v>0.208</v>
+        <v>0.125</v>
       </c>
       <c r="M173" t="n">
         <v>0</v>
@@ -23523,7 +23523,7 @@
         <v>0.25</v>
       </c>
       <c r="F174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G174" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0.9419999999999999</v>
       </c>
       <c r="F177" t="n">
-        <v>0.979</v>
+        <v>0.579</v>
       </c>
       <c r="G177" t="n">
         <v>0</v>
@@ -23724,7 +23724,7 @@
         <v>0</v>
       </c>
       <c r="L177" t="n">
-        <v>0.333</v>
+        <v>0.133</v>
       </c>
       <c r="M177" t="n">
         <v>0</v>
@@ -23767,7 +23767,7 @@
         <v>0.723</v>
       </c>
       <c r="F178" t="n">
-        <v>0.571</v>
+        <v>0</v>
       </c>
       <c r="G178" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="L178" t="n">
-        <v>0.381</v>
+        <v>0.167</v>
       </c>
       <c r="M178" t="n">
         <v>0</v>
@@ -23828,7 +23828,7 @@
         <v>0.309</v>
       </c>
       <c r="F179" t="n">
-        <v>0.188</v>
+        <v>0</v>
       </c>
       <c r="G179" t="n">
         <v>0</v>
@@ -23846,7 +23846,7 @@
         <v>0</v>
       </c>
       <c r="L179" t="n">
-        <v>0.25</v>
+        <v>0.062</v>
       </c>
       <c r="M179" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0.201</v>
       </c>
       <c r="F181" t="n">
-        <v>0.182</v>
+        <v>0</v>
       </c>
       <c r="G181" t="n">
         <v>0</v>
@@ -24011,25 +24011,25 @@
         <v>0.743</v>
       </c>
       <c r="F182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L182" t="n">
         <v>0.25</v>
-      </c>
-      <c r="G182" t="n">
-        <v>0</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="n">
-        <v>0</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0</v>
-      </c>
-      <c r="L182" t="n">
-        <v>0.375</v>
       </c>
       <c r="M182" t="n">
         <v>0</v>
@@ -24072,7 +24072,7 @@
         <v>0.955</v>
       </c>
       <c r="F183" t="n">
-        <v>0.953</v>
+        <v>0.703</v>
       </c>
       <c r="G183" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>0.703</v>
       </c>
       <c r="F184" t="n">
-        <v>0.75</v>
+        <v>0.583</v>
       </c>
       <c r="G184" t="n">
         <v>0</v>
@@ -24194,7 +24194,7 @@
         <v>0.5</v>
       </c>
       <c r="F185" t="n">
-        <v>0.923</v>
+        <v>0.077</v>
       </c>
       <c r="G185" t="n">
         <v>0</v>
@@ -24212,7 +24212,7 @@
         <v>0</v>
       </c>
       <c r="L185" t="n">
-        <v>0.385</v>
+        <v>0.154</v>
       </c>
       <c r="M185" t="n">
         <v>0</v>
@@ -24255,7 +24255,7 @@
         <v>0.619</v>
       </c>
       <c r="F186" t="n">
-        <v>0.677</v>
+        <v>0.118</v>
       </c>
       <c r="G186" t="n">
         <v>0</v>
@@ -24273,7 +24273,7 @@
         <v>0</v>
       </c>
       <c r="L186" t="n">
-        <v>0.304</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="M186" t="n">
         <v>0</v>
@@ -24316,7 +24316,7 @@
         <v>0.607</v>
       </c>
       <c r="F187" t="n">
-        <v>0.93</v>
+        <v>0.14</v>
       </c>
       <c r="G187" t="n">
         <v>0</v>
@@ -24334,7 +24334,7 @@
         <v>0</v>
       </c>
       <c r="L187" t="n">
-        <v>0.263</v>
+        <v>0.211</v>
       </c>
       <c r="M187" t="n">
         <v>0</v>
@@ -24438,7 +24438,7 @@
         <v>0.398</v>
       </c>
       <c r="F189" t="n">
-        <v>0.667</v>
+        <v>0</v>
       </c>
       <c r="G189" t="n">
         <v>0</v>
@@ -24499,7 +24499,7 @@
         <v>0.6860000000000001</v>
       </c>
       <c r="F190" t="n">
-        <v>0.781</v>
+        <v>0.358</v>
       </c>
       <c r="G190" t="n">
         <v>0</v>
@@ -24517,7 +24517,7 @@
         <v>0</v>
       </c>
       <c r="L190" t="n">
-        <v>0.299</v>
+        <v>0.068</v>
       </c>
       <c r="M190" t="n">
         <v>0</v>
@@ -24560,7 +24560,7 @@
         <v>0.4</v>
       </c>
       <c r="F191" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G191" t="n">
         <v>0</v>
@@ -24682,7 +24682,7 @@
         <v>0.166</v>
       </c>
       <c r="F193" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="G193" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="L193" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="M193" t="n">
         <v>0</v>
@@ -24743,7 +24743,7 @@
         <v>0.351</v>
       </c>
       <c r="F194" t="n">
-        <v>0.676</v>
+        <v>0.259</v>
       </c>
       <c r="G194" t="n">
         <v>0</v>
@@ -24761,7 +24761,7 @@
         <v>0</v>
       </c>
       <c r="L194" t="n">
-        <v>0.278</v>
+        <v>0.195</v>
       </c>
       <c r="M194" t="n">
         <v>0</v>
@@ -24804,7 +24804,7 @@
         <v>0.908</v>
       </c>
       <c r="F195" t="n">
-        <v>0.722</v>
+        <v>0.389</v>
       </c>
       <c r="G195" t="n">
         <v>0</v>
@@ -24926,7 +24926,7 @@
         <v>0.639</v>
       </c>
       <c r="F197" t="n">
-        <v>0.673</v>
+        <v>0.388</v>
       </c>
       <c r="G197" t="n">
         <v>0</v>
@@ -24944,7 +24944,7 @@
         <v>0</v>
       </c>
       <c r="L197" t="n">
-        <v>0.286</v>
+        <v>0</v>
       </c>
       <c r="M197" t="n">
         <v>0</v>
@@ -24987,7 +24987,7 @@
         <v>0.822</v>
       </c>
       <c r="F198" t="n">
-        <v>0.952</v>
+        <v>0.381</v>
       </c>
       <c r="G198" t="n">
         <v>0</v>
@@ -25005,7 +25005,7 @@
         <v>0</v>
       </c>
       <c r="L198" t="n">
-        <v>0.643</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="M198" t="n">
         <v>0</v>
@@ -25104,7 +25104,7 @@
         <v>0.58</v>
       </c>
       <c r="F200" t="n">
-        <v>0.618</v>
+        <v>0.178</v>
       </c>
       <c r="G200" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="L200" t="n">
-        <v>0.278</v>
+        <v>0.19</v>
       </c>
       <c r="M200" t="n">
         <v>0</v>
@@ -25165,7 +25165,7 @@
         <v>0.602</v>
       </c>
       <c r="F201" t="n">
-        <v>0.667</v>
+        <v>0.057</v>
       </c>
       <c r="G201" t="n">
         <v>0</v>
@@ -25183,7 +25183,7 @@
         <v>0</v>
       </c>
       <c r="L201" t="n">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="M201" t="n">
         <v>0</v>
@@ -25226,7 +25226,7 @@
         <v>0.252</v>
       </c>
       <c r="F202" t="n">
-        <v>0.305</v>
+        <v>0.246</v>
       </c>
       <c r="G202" t="n">
         <v>0</v>
@@ -25244,7 +25244,7 @@
         <v>0</v>
       </c>
       <c r="L202" t="n">
-        <v>0.226</v>
+        <v>0.216</v>
       </c>
       <c r="M202" t="n">
         <v>0</v>
@@ -25413,7 +25413,7 @@
         <v>0.494</v>
       </c>
       <c r="F2" t="n">
-        <v>0.615</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -25431,7 +25431,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.154</v>
+        <v>0.077</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -25492,7 +25492,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -25535,7 +25535,7 @@
         <v>0.272</v>
       </c>
       <c r="F4" t="n">
-        <v>0.208</v>
+        <v>0.042</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0.828</v>
       </c>
       <c r="F5" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -25657,7 +25657,7 @@
         <v>0.416</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -25718,7 +25718,7 @@
         <v>0.445</v>
       </c>
       <c r="F7" t="n">
-        <v>0.667</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -25779,7 +25779,7 @@
         <v>0.25</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.667</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -25901,7 +25901,7 @@
         <v>0.083</v>
       </c>
       <c r="F10" t="n">
-        <v>0.111</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -25962,7 +25962,7 @@
         <v>0.654</v>
       </c>
       <c r="F11" t="n">
-        <v>0.548</v>
+        <v>0.262</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -26102,7 +26102,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.208</v>
+        <v>0.083</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -26145,7 +26145,7 @@
         <v>0.641</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6919999999999999</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0.282</v>
+        <v>0.128</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -26267,7 +26267,7 @@
         <v>0.548</v>
       </c>
       <c r="F16" t="n">
-        <v>0.533</v>
+        <v>0.391</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -26285,7 +26285,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0.429</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -26328,7 +26328,7 @@
         <v>0.499</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.062</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -26346,7 +26346,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0.488</v>
       </c>
       <c r="F18" t="n">
-        <v>0.68</v>
+        <v>0.026</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0.387</v>
+        <v>0.118</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -26450,7 +26450,7 @@
         <v>0.792</v>
       </c>
       <c r="F19" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -26511,7 +26511,7 @@
         <v>0.649</v>
       </c>
       <c r="F20" t="n">
-        <v>0.571</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -26572,7 +26572,7 @@
         <v>0.77</v>
       </c>
       <c r="F21" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -26590,7 +26590,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2</v>
+        <v>0.067</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -26633,7 +26633,7 @@
         <v>0.472</v>
       </c>
       <c r="F22" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -26651,7 +26651,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0.389</v>
+        <v>0.222</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -26694,7 +26694,7 @@
         <v>0.641</v>
       </c>
       <c r="F23" t="n">
-        <v>0.696</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -26712,7 +26712,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0.174</v>
+        <v>0.13</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -26755,7 +26755,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -26816,7 +26816,7 @@
         <v>0.447</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8179999999999999</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -26834,7 +26834,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.182</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -26877,7 +26877,7 @@
         <v>0.923</v>
       </c>
       <c r="F26" t="n">
-        <v>0.467</v>
+        <v>0.133</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>0.661</v>
       </c>
       <c r="F27" t="n">
-        <v>0.391</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0.488</v>
       </c>
       <c r="F28" t="n">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -27017,7 +27017,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0.279</v>
+        <v>0.217</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -27060,7 +27060,7 @@
         <v>0.594</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.189</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -27121,7 +27121,7 @@
         <v>0.407</v>
       </c>
       <c r="F30" t="n">
-        <v>0.699</v>
+        <v>0.27</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -27243,7 +27243,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -27304,7 +27304,7 @@
         <v>0.6889999999999999</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -27365,7 +27365,7 @@
         <v>0.743</v>
       </c>
       <c r="F34" t="n">
-        <v>0.857</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -27383,7 +27383,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0.571</v>
+        <v>0.143</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -27548,7 +27548,7 @@
         <v>0.493</v>
       </c>
       <c r="F37" t="n">
-        <v>0.488</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -27566,7 +27566,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.256</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -27609,7 +27609,7 @@
         <v>0.37</v>
       </c>
       <c r="F38" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -27731,7 +27731,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0.494</v>
       </c>
       <c r="F41" t="n">
-        <v>0.6840000000000001</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -27810,7 +27810,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0.263</v>
+        <v>0.158</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -27853,7 +27853,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -27914,7 +27914,7 @@
         <v>0.25</v>
       </c>
       <c r="F43" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -28097,7 +28097,7 @@
         <v>0.7</v>
       </c>
       <c r="F46" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -28158,7 +28158,7 @@
         <v>0.424</v>
       </c>
       <c r="F47" t="n">
-        <v>0.667</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -28176,7 +28176,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>0.156</v>
+        <v>0.089</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
@@ -28219,7 +28219,7 @@
         <v>0.461</v>
       </c>
       <c r="F48" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -28237,7 +28237,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
@@ -28280,7 +28280,7 @@
         <v>0.583</v>
       </c>
       <c r="F49" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -28402,7 +28402,7 @@
         <v>0.781</v>
       </c>
       <c r="F51" t="n">
-        <v>0.759</v>
+        <v>0.037</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -28420,7 +28420,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>0.259</v>
+        <v>0.204</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
@@ -28463,7 +28463,7 @@
         <v>0.239</v>
       </c>
       <c r="F52" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -28524,7 +28524,7 @@
         <v>0.6840000000000001</v>
       </c>
       <c r="F53" t="n">
-        <v>0.554</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -28585,7 +28585,7 @@
         <v>0.825</v>
       </c>
       <c r="F54" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -28646,7 +28646,7 @@
         <v>0.833</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -28829,7 +28829,7 @@
         <v>0.633</v>
       </c>
       <c r="F58" t="n">
-        <v>0.471</v>
+        <v>0.05</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -28847,7 +28847,7 @@
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>0.158</v>
+        <v>0.105</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
@@ -28890,7 +28890,7 @@
         <v>0.761</v>
       </c>
       <c r="F59" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -28908,7 +28908,7 @@
         <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
@@ -28951,7 +28951,7 @@
         <v>0.323</v>
       </c>
       <c r="F60" t="n">
-        <v>0.25</v>
+        <v>0.023</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -29195,7 +29195,7 @@
         <v>0.42</v>
       </c>
       <c r="F64" t="n">
-        <v>0.411</v>
+        <v>0.245</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -29256,7 +29256,7 @@
         <v>0.795</v>
       </c>
       <c r="F65" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -29317,7 +29317,7 @@
         <v>0.5669999999999999</v>
       </c>
       <c r="F66" t="n">
-        <v>0.312</v>
+        <v>0.188</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>0.446</v>
+        <v>0.196</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
@@ -29561,7 +29561,7 @@
         <v>0.596</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6</v>
+        <v>0.35</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -29579,7 +29579,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="M70" t="n">
         <v>0</v>
@@ -29744,7 +29744,7 @@
         <v>0.6840000000000001</v>
       </c>
       <c r="F73" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -29762,7 +29762,7 @@
         <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>0.667</v>
+        <v>0.167</v>
       </c>
       <c r="M73" t="n">
         <v>0</v>
@@ -29805,7 +29805,7 @@
         <v>0.4</v>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -29866,25 +29866,25 @@
         <v>0.745</v>
       </c>
       <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
         <v>0.25</v>
-      </c>
-      <c r="G75" t="n">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0</v>
-      </c>
-      <c r="L75" t="n">
-        <v>0.5</v>
       </c>
       <c r="M75" t="n">
         <v>0</v>
@@ -29927,7 +29927,7 @@
         <v>0.514</v>
       </c>
       <c r="F76" t="n">
-        <v>0.727</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -29945,7 +29945,7 @@
         <v>0</v>
       </c>
       <c r="L76" t="n">
-        <v>0.386</v>
+        <v>0.25</v>
       </c>
       <c r="M76" t="n">
         <v>0</v>
@@ -29988,7 +29988,7 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -30049,7 +30049,7 @@
         <v>0.352</v>
       </c>
       <c r="F78" t="n">
-        <v>0.318</v>
+        <v>0.045</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -30110,7 +30110,7 @@
         <v>0.317</v>
       </c>
       <c r="F79" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -30128,7 +30128,7 @@
         <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>0.333</v>
+        <v>0.208</v>
       </c>
       <c r="M79" t="n">
         <v>0</v>
@@ -30171,7 +30171,7 @@
         <v>0.364</v>
       </c>
       <c r="F80" t="n">
-        <v>0.636</v>
+        <v>0.091</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>0.309</v>
+        <v>0.127</v>
       </c>
       <c r="M80" t="n">
         <v>0</v>
@@ -30250,7 +30250,7 @@
         <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="M81" t="n">
         <v>0</v>
@@ -30293,7 +30293,7 @@
         <v>0.8120000000000001</v>
       </c>
       <c r="F82" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -30354,7 +30354,7 @@
         <v>0.983</v>
       </c>
       <c r="F83" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -30415,7 +30415,7 @@
         <v>0.647</v>
       </c>
       <c r="F84" t="n">
-        <v>0.333</v>
+        <v>0.026</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -30476,7 +30476,7 @@
         <v>0.556</v>
       </c>
       <c r="F85" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -30537,7 +30537,7 @@
         <v>0.61</v>
       </c>
       <c r="F86" t="n">
-        <v>0.529</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -30555,7 +30555,7 @@
         <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>0.588</v>
+        <v>0.118</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
@@ -30659,7 +30659,7 @@
         <v>0.65</v>
       </c>
       <c r="F88" t="n">
-        <v>0.824</v>
+        <v>0.059</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -30677,7 +30677,7 @@
         <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>0.353</v>
+        <v>0.176</v>
       </c>
       <c r="M88" t="n">
         <v>0</v>
@@ -30781,7 +30781,7 @@
         <v>0.785</v>
       </c>
       <c r="F90" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -30842,7 +30842,7 @@
         <v>0.19</v>
       </c>
       <c r="F91" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -30903,7 +30903,7 @@
         <v>0.299</v>
       </c>
       <c r="F92" t="n">
-        <v>0.222</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -30921,7 +30921,7 @@
         <v>0</v>
       </c>
       <c r="L92" t="n">
-        <v>0.111</v>
+        <v>0</v>
       </c>
       <c r="M92" t="n">
         <v>0</v>
@@ -30964,7 +30964,7 @@
         <v>0.552</v>
       </c>
       <c r="F93" t="n">
-        <v>0.594</v>
+        <v>0.031</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -30982,7 +30982,7 @@
         <v>0</v>
       </c>
       <c r="L93" t="n">
-        <v>0.344</v>
+        <v>0.031</v>
       </c>
       <c r="M93" t="n">
         <v>0</v>
@@ -31025,7 +31025,7 @@
         <v>0.6</v>
       </c>
       <c r="F94" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -31086,7 +31086,7 @@
         <v>0.635</v>
       </c>
       <c r="F95" t="n">
-        <v>0.927</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
@@ -31104,7 +31104,7 @@
         <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>0.635</v>
+        <v>0.349</v>
       </c>
       <c r="M95" t="n">
         <v>0</v>
@@ -31269,7 +31269,7 @@
         <v>0.092</v>
       </c>
       <c r="F98" t="n">
-        <v>0.348</v>
+        <v>0.098</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
@@ -31330,7 +31330,7 @@
         <v>0.151</v>
       </c>
       <c r="F99" t="n">
-        <v>0.259</v>
+        <v>0.093</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
@@ -31391,7 +31391,7 @@
         <v>0.8159999999999999</v>
       </c>
       <c r="F100" t="n">
-        <v>0.556</v>
+        <v>0.082</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
@@ -31452,7 +31452,7 @@
         <v>0.681</v>
       </c>
       <c r="F101" t="n">
-        <v>0.501</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
@@ -31574,7 +31574,7 @@
         <v>0.7</v>
       </c>
       <c r="F103" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
@@ -31635,7 +31635,7 @@
         <v>0.498</v>
       </c>
       <c r="F104" t="n">
-        <v>0.786</v>
+        <v>0</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
@@ -31653,7 +31653,7 @@
         <v>0</v>
       </c>
       <c r="L104" t="n">
-        <v>0.07099999999999999</v>
+        <v>0</v>
       </c>
       <c r="M104" t="n">
         <v>0</v>
@@ -31696,7 +31696,7 @@
         <v>0.54</v>
       </c>
       <c r="F105" t="n">
-        <v>0.778</v>
+        <v>0.056</v>
       </c>
       <c r="G105" t="n">
         <v>0</v>
@@ -31714,7 +31714,7 @@
         <v>0</v>
       </c>
       <c r="L105" t="n">
-        <v>0.133</v>
+        <v>0.078</v>
       </c>
       <c r="M105" t="n">
         <v>0</v>
@@ -31757,7 +31757,7 @@
         <v>0.679</v>
       </c>
       <c r="F106" t="n">
-        <v>0.895</v>
+        <v>0</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
@@ -31775,7 +31775,7 @@
         <v>0</v>
       </c>
       <c r="L106" t="n">
-        <v>0.158</v>
+        <v>0.105</v>
       </c>
       <c r="M106" t="n">
         <v>0</v>
@@ -31818,7 +31818,7 @@
         <v>0.588</v>
       </c>
       <c r="F107" t="n">
-        <v>0.524</v>
+        <v>0</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
@@ -31836,7 +31836,7 @@
         <v>0</v>
       </c>
       <c r="L107" t="n">
-        <v>0.365</v>
+        <v>0.032</v>
       </c>
       <c r="M107" t="n">
         <v>0</v>
@@ -31879,7 +31879,7 @@
         <v>0.732</v>
       </c>
       <c r="F108" t="n">
-        <v>0.833</v>
+        <v>0.083</v>
       </c>
       <c r="G108" t="n">
         <v>0</v>
@@ -31897,7 +31897,7 @@
         <v>0</v>
       </c>
       <c r="L108" t="n">
-        <v>0.222</v>
+        <v>0.056</v>
       </c>
       <c r="M108" t="n">
         <v>0</v>
@@ -31940,7 +31940,7 @@
         <v>0.907</v>
       </c>
       <c r="F109" t="n">
-        <v>0.424</v>
+        <v>0.365</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
@@ -31958,7 +31958,7 @@
         <v>0</v>
       </c>
       <c r="L109" t="n">
-        <v>0.569</v>
+        <v>0.51</v>
       </c>
       <c r="M109" t="n">
         <v>0</v>
@@ -32001,7 +32001,7 @@
         <v>0.329</v>
       </c>
       <c r="F110" t="n">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
@@ -32062,7 +32062,7 @@
         <v>0.664</v>
       </c>
       <c r="F111" t="n">
-        <v>0.833</v>
+        <v>0</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
@@ -32080,7 +32080,7 @@
         <v>0</v>
       </c>
       <c r="L111" t="n">
-        <v>0.269</v>
+        <v>0.213</v>
       </c>
       <c r="M111" t="n">
         <v>0</v>
@@ -32123,7 +32123,7 @@
         <v>0.667</v>
       </c>
       <c r="F112" t="n">
-        <v>0.667</v>
+        <v>0</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
@@ -32184,7 +32184,7 @@
         <v>0.731</v>
       </c>
       <c r="F113" t="n">
-        <v>0.923</v>
+        <v>0</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
@@ -32202,7 +32202,7 @@
         <v>0</v>
       </c>
       <c r="L113" t="n">
-        <v>0.321</v>
+        <v>0.244</v>
       </c>
       <c r="M113" t="n">
         <v>0</v>
@@ -32245,7 +32245,7 @@
         <v>0.636</v>
       </c>
       <c r="F114" t="n">
-        <v>0.533</v>
+        <v>0</v>
       </c>
       <c r="G114" t="n">
         <v>0</v>
@@ -32306,7 +32306,7 @@
         <v>0.495</v>
       </c>
       <c r="F115" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.023</v>
       </c>
       <c r="G115" t="n">
         <v>0</v>
@@ -32367,7 +32367,7 @@
         <v>0.463</v>
       </c>
       <c r="F116" t="n">
-        <v>0.354</v>
+        <v>0.021</v>
       </c>
       <c r="G116" t="n">
         <v>0</v>
@@ -32385,7 +32385,7 @@
         <v>0</v>
       </c>
       <c r="L116" t="n">
-        <v>0.417</v>
+        <v>0.083</v>
       </c>
       <c r="M116" t="n">
         <v>0</v>
@@ -32428,7 +32428,7 @@
         <v>0.952</v>
       </c>
       <c r="F117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G117" t="n">
         <v>0</v>
@@ -32550,7 +32550,7 @@
         <v>0.481</v>
       </c>
       <c r="F119" t="n">
-        <v>0.458</v>
+        <v>0.083</v>
       </c>
       <c r="G119" t="n">
         <v>0</v>
@@ -32611,7 +32611,7 @@
         <v>0.359</v>
       </c>
       <c r="F120" t="n">
-        <v>0.429</v>
+        <v>0.095</v>
       </c>
       <c r="G120" t="n">
         <v>0</v>
@@ -32672,7 +32672,7 @@
         <v>0.571</v>
       </c>
       <c r="F121" t="n">
-        <v>0.291</v>
+        <v>0.149</v>
       </c>
       <c r="G121" t="n">
         <v>0</v>
@@ -32733,7 +32733,7 @@
         <v>0.454</v>
       </c>
       <c r="F122" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G122" t="n">
         <v>0</v>
@@ -32794,7 +32794,7 @@
         <v>0.736</v>
       </c>
       <c r="F123" t="n">
-        <v>0.643</v>
+        <v>0</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
@@ -32812,7 +32812,7 @@
         <v>0</v>
       </c>
       <c r="L123" t="n">
-        <v>0.333</v>
+        <v>0.19</v>
       </c>
       <c r="M123" t="n">
         <v>0</v>
@@ -32873,7 +32873,7 @@
         <v>0</v>
       </c>
       <c r="L124" t="n">
-        <v>0.329</v>
+        <v>0.229</v>
       </c>
       <c r="M124" t="n">
         <v>0</v>
@@ -32916,7 +32916,7 @@
         <v>0.8</v>
       </c>
       <c r="F125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G125" t="n">
         <v>0</v>
@@ -32995,7 +32995,7 @@
         <v>0</v>
       </c>
       <c r="L126" t="n">
-        <v>0.556</v>
+        <v>0.222</v>
       </c>
       <c r="M126" t="n">
         <v>0</v>
@@ -33038,7 +33038,7 @@
         <v>0.892</v>
       </c>
       <c r="F127" t="n">
-        <v>0.729</v>
+        <v>0.104</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
@@ -33056,7 +33056,7 @@
         <v>0</v>
       </c>
       <c r="L127" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.438</v>
       </c>
       <c r="M127" t="n">
         <v>0</v>
@@ -33099,7 +33099,7 @@
         <v>0.752</v>
       </c>
       <c r="F128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G128" t="n">
         <v>0</v>
@@ -33239,7 +33239,7 @@
         <v>0</v>
       </c>
       <c r="L130" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="M130" t="n">
         <v>0</v>
@@ -33282,7 +33282,7 @@
         <v>0.342</v>
       </c>
       <c r="F131" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
       <c r="G131" t="n">
         <v>0</v>
@@ -33300,7 +33300,7 @@
         <v>0</v>
       </c>
       <c r="L131" t="n">
-        <v>0.222</v>
+        <v>0.056</v>
       </c>
       <c r="M131" t="n">
         <v>0</v>
@@ -33343,7 +33343,7 @@
         <v>0.768</v>
       </c>
       <c r="F132" t="n">
-        <v>0.167</v>
+        <v>0</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
@@ -33404,7 +33404,7 @@
         <v>0.174</v>
       </c>
       <c r="F133" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="G133" t="n">
         <v>0</v>
@@ -33465,7 +33465,7 @@
         <v>0.648</v>
       </c>
       <c r="F134" t="n">
-        <v>0.583</v>
+        <v>0.22</v>
       </c>
       <c r="G134" t="n">
         <v>0</v>
@@ -33526,7 +33526,7 @@
         <v>0.345</v>
       </c>
       <c r="F135" t="n">
-        <v>0.156</v>
+        <v>0.014</v>
       </c>
       <c r="G135" t="n">
         <v>0</v>
@@ -33587,7 +33587,7 @@
         <v>0.57</v>
       </c>
       <c r="F136" t="n">
-        <v>0.778</v>
+        <v>0.111</v>
       </c>
       <c r="G136" t="n">
         <v>0</v>
@@ -33605,7 +33605,7 @@
         <v>0</v>
       </c>
       <c r="L136" t="n">
-        <v>0.167</v>
+        <v>0</v>
       </c>
       <c r="M136" t="n">
         <v>0</v>
@@ -33709,7 +33709,7 @@
         <v>0.699</v>
       </c>
       <c r="F138" t="n">
-        <v>1</v>
+        <v>0.091</v>
       </c>
       <c r="G138" t="n">
         <v>0</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="L138" t="n">
-        <v>0.152</v>
+        <v>0.061</v>
       </c>
       <c r="M138" t="n">
         <v>0</v>
@@ -33770,7 +33770,7 @@
         <v>0.907</v>
       </c>
       <c r="F139" t="n">
-        <v>0.354</v>
+        <v>0.104</v>
       </c>
       <c r="G139" t="n">
         <v>0</v>
@@ -33892,7 +33892,7 @@
         <v>0.694</v>
       </c>
       <c r="F141" t="n">
-        <v>0.644</v>
+        <v>0.063</v>
       </c>
       <c r="G141" t="n">
         <v>0</v>
@@ -33910,7 +33910,7 @@
         <v>0</v>
       </c>
       <c r="L141" t="n">
-        <v>0.282</v>
+        <v>0.056</v>
       </c>
       <c r="M141" t="n">
         <v>0</v>
@@ -33953,7 +33953,7 @@
         <v>0.714</v>
       </c>
       <c r="F142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G142" t="n">
         <v>0</v>
@@ -34075,7 +34075,7 @@
         <v>0.231</v>
       </c>
       <c r="F144" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G144" t="n">
         <v>0</v>
@@ -34136,7 +34136,7 @@
         <v>0.346</v>
       </c>
       <c r="F145" t="n">
-        <v>0.586</v>
+        <v>0</v>
       </c>
       <c r="G145" t="n">
         <v>0</v>
@@ -34154,7 +34154,7 @@
         <v>0</v>
       </c>
       <c r="L145" t="n">
-        <v>0.299</v>
+        <v>0.126</v>
       </c>
       <c r="M145" t="n">
         <v>0</v>
@@ -34197,7 +34197,7 @@
         <v>0.6</v>
       </c>
       <c r="F146" t="n">
-        <v>0.667</v>
+        <v>0</v>
       </c>
       <c r="G146" t="n">
         <v>0</v>
@@ -34215,7 +34215,7 @@
         <v>0</v>
       </c>
       <c r="L146" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
       <c r="M146" t="n">
         <v>0</v>
@@ -34258,7 +34258,7 @@
         <v>0.076</v>
       </c>
       <c r="F147" t="n">
-        <v>0.067</v>
+        <v>0</v>
       </c>
       <c r="G147" t="n">
         <v>0</v>
@@ -34337,7 +34337,7 @@
         <v>0</v>
       </c>
       <c r="L148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M148" t="n">
         <v>0</v>
@@ -34398,7 +34398,7 @@
         <v>0</v>
       </c>
       <c r="L149" t="n">
-        <v>0.357</v>
+        <v>0.214</v>
       </c>
       <c r="M149" t="n">
         <v>0</v>
@@ -34441,7 +34441,7 @@
         <v>0.8139999999999999</v>
       </c>
       <c r="F150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G150" t="n">
         <v>0</v>
@@ -34459,7 +34459,7 @@
         <v>0</v>
       </c>
       <c r="L150" t="n">
-        <v>0.25</v>
+        <v>0.167</v>
       </c>
       <c r="M150" t="n">
         <v>0</v>
@@ -34502,7 +34502,7 @@
         <v>0.75</v>
       </c>
       <c r="F151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G151" t="n">
         <v>0</v>
@@ -34563,7 +34563,7 @@
         <v>0.377</v>
       </c>
       <c r="F152" t="n">
-        <v>0.347</v>
+        <v>0.027</v>
       </c>
       <c r="G152" t="n">
         <v>0</v>
@@ -34581,7 +34581,7 @@
         <v>0</v>
       </c>
       <c r="L152" t="n">
-        <v>0.473</v>
+        <v>0.273</v>
       </c>
       <c r="M152" t="n">
         <v>0</v>
@@ -34624,7 +34624,7 @@
         <v>0.672</v>
       </c>
       <c r="F153" t="n">
-        <v>0.312</v>
+        <v>0.146</v>
       </c>
       <c r="G153" t="n">
         <v>0</v>
@@ -34685,7 +34685,7 @@
         <v>0.789</v>
       </c>
       <c r="F154" t="n">
-        <v>0.833</v>
+        <v>0</v>
       </c>
       <c r="G154" t="n">
         <v>0</v>
@@ -34746,7 +34746,7 @@
         <v>0.541</v>
       </c>
       <c r="F155" t="n">
-        <v>0.442</v>
+        <v>0.169</v>
       </c>
       <c r="G155" t="n">
         <v>0</v>
@@ -34868,7 +34868,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.833</v>
+        <v>0.5</v>
       </c>
       <c r="G157" t="n">
         <v>0</v>
@@ -34929,7 +34929,7 @@
         <v>0.523</v>
       </c>
       <c r="F158" t="n">
-        <v>0.312</v>
+        <v>0.039</v>
       </c>
       <c r="G158" t="n">
         <v>0</v>
@@ -34990,7 +34990,7 @@
         <v>0.777</v>
       </c>
       <c r="F159" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G159" t="n">
         <v>0</v>
@@ -35008,7 +35008,7 @@
         <v>0</v>
       </c>
       <c r="L159" t="n">
-        <v>0.667</v>
+        <v>0.167</v>
       </c>
       <c r="M159" t="n">
         <v>0</v>
@@ -35051,7 +35051,7 @@
         <v>0.597</v>
       </c>
       <c r="F160" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="G160" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>0.9</v>
       </c>
       <c r="F161" t="n">
-        <v>0.667</v>
+        <v>0.095</v>
       </c>
       <c r="G161" t="n">
         <v>0</v>
@@ -35130,7 +35130,7 @@
         <v>0</v>
       </c>
       <c r="L161" t="n">
-        <v>0.429</v>
+        <v>0.143</v>
       </c>
       <c r="M161" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>0.6909999999999999</v>
       </c>
       <c r="F162" t="n">
-        <v>0.263</v>
+        <v>0</v>
       </c>
       <c r="G162" t="n">
         <v>0</v>
@@ -35234,7 +35234,7 @@
         <v>0.8</v>
       </c>
       <c r="F163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G163" t="n">
         <v>0</v>
@@ -35356,7 +35356,7 @@
         <v>0.591</v>
       </c>
       <c r="F165" t="n">
-        <v>0.575</v>
+        <v>0.023</v>
       </c>
       <c r="G165" t="n">
         <v>0</v>
@@ -35374,7 +35374,7 @@
         <v>0</v>
       </c>
       <c r="L165" t="n">
-        <v>0.287</v>
+        <v>0.08</v>
       </c>
       <c r="M165" t="n">
         <v>0</v>
@@ -35417,7 +35417,7 @@
         <v>0.489</v>
       </c>
       <c r="F166" t="n">
-        <v>0.556</v>
+        <v>0.222</v>
       </c>
       <c r="G166" t="n">
         <v>0</v>
@@ -35478,7 +35478,7 @@
         <v>0.459</v>
       </c>
       <c r="F167" t="n">
-        <v>0.583</v>
+        <v>0</v>
       </c>
       <c r="G167" t="n">
         <v>0</v>
@@ -35539,7 +35539,7 @@
         <v>0.25</v>
       </c>
       <c r="F168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G168" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0.9370000000000001</v>
       </c>
       <c r="F171" t="n">
-        <v>0.482</v>
+        <v>0.282</v>
       </c>
       <c r="G171" t="n">
         <v>0</v>
@@ -35740,7 +35740,7 @@
         <v>0</v>
       </c>
       <c r="L171" t="n">
-        <v>0.257</v>
+        <v>0.057</v>
       </c>
       <c r="M171" t="n">
         <v>0</v>
@@ -35783,7 +35783,7 @@
         <v>0.673</v>
       </c>
       <c r="F172" t="n">
-        <v>0.533</v>
+        <v>0</v>
       </c>
       <c r="G172" t="n">
         <v>0</v>
@@ -35801,7 +35801,7 @@
         <v>0</v>
       </c>
       <c r="L172" t="n">
-        <v>0.378</v>
+        <v>0.178</v>
       </c>
       <c r="M172" t="n">
         <v>0</v>
@@ -35844,7 +35844,7 @@
         <v>0.308</v>
       </c>
       <c r="F173" t="n">
-        <v>0.188</v>
+        <v>0</v>
       </c>
       <c r="G173" t="n">
         <v>0</v>
@@ -35862,7 +35862,7 @@
         <v>0</v>
       </c>
       <c r="L173" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="M173" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>0.519</v>
       </c>
       <c r="F174" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="G174" t="n">
         <v>0</v>
@@ -35966,7 +35966,7 @@
         <v>0.201</v>
       </c>
       <c r="F175" t="n">
-        <v>0.273</v>
+        <v>0</v>
       </c>
       <c r="G175" t="n">
         <v>0</v>
@@ -36027,7 +36027,7 @@
         <v>0.748</v>
       </c>
       <c r="F176" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G176" t="n">
         <v>0</v>
@@ -36088,7 +36088,7 @@
         <v>0.93</v>
       </c>
       <c r="F177" t="n">
-        <v>0.709</v>
+        <v>0.459</v>
       </c>
       <c r="G177" t="n">
         <v>0</v>
@@ -36210,7 +36210,7 @@
         <v>0.423</v>
       </c>
       <c r="F179" t="n">
-        <v>0.769</v>
+        <v>0</v>
       </c>
       <c r="G179" t="n">
         <v>0</v>
@@ -36228,7 +36228,7 @@
         <v>0</v>
       </c>
       <c r="L179" t="n">
-        <v>0.231</v>
+        <v>0.154</v>
       </c>
       <c r="M179" t="n">
         <v>0</v>
@@ -36271,7 +36271,7 @@
         <v>0.516</v>
       </c>
       <c r="F180" t="n">
-        <v>0.455</v>
+        <v>0.03</v>
       </c>
       <c r="G180" t="n">
         <v>0</v>
@@ -36289,7 +36289,7 @@
         <v>0</v>
       </c>
       <c r="L180" t="n">
-        <v>0.253</v>
+        <v>0.101</v>
       </c>
       <c r="M180" t="n">
         <v>0</v>
@@ -36332,7 +36332,7 @@
         <v>0.52</v>
       </c>
       <c r="F181" t="n">
-        <v>0.6840000000000001</v>
+        <v>0</v>
       </c>
       <c r="G181" t="n">
         <v>0</v>
@@ -36350,7 +36350,7 @@
         <v>0</v>
       </c>
       <c r="L181" t="n">
-        <v>0.351</v>
+        <v>0.298</v>
       </c>
       <c r="M181" t="n">
         <v>0</v>
@@ -36454,7 +36454,7 @@
         <v>0.441</v>
       </c>
       <c r="F183" t="n">
-        <v>0.667</v>
+        <v>0</v>
       </c>
       <c r="G183" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0.4</v>
       </c>
       <c r="F184" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="G184" t="n">
         <v>0</v>
@@ -36637,7 +36637,7 @@
         <v>0.298</v>
       </c>
       <c r="F186" t="n">
-        <v>0.466</v>
+        <v>0.109</v>
       </c>
       <c r="G186" t="n">
         <v>0</v>
@@ -36655,7 +36655,7 @@
         <v>0</v>
       </c>
       <c r="L186" t="n">
-        <v>0.25</v>
+        <v>0.179</v>
       </c>
       <c r="M186" t="n">
         <v>0</v>
@@ -36759,7 +36759,7 @@
         <v>0.52</v>
       </c>
       <c r="F188" t="n">
-        <v>0.324</v>
+        <v>0.074</v>
       </c>
       <c r="G188" t="n">
         <v>0</v>
@@ -36777,7 +36777,7 @@
         <v>0</v>
       </c>
       <c r="L188" t="n">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="M188" t="n">
         <v>0</v>
@@ -36820,7 +36820,7 @@
         <v>0.857</v>
       </c>
       <c r="F189" t="n">
-        <v>0.914</v>
+        <v>0.343</v>
       </c>
       <c r="G189" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>0</v>
       </c>
       <c r="L189" t="n">
-        <v>0.643</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="M189" t="n">
         <v>0</v>
@@ -36881,7 +36881,7 @@
         <v>0.305</v>
       </c>
       <c r="F190" t="n">
-        <v>0.068</v>
+        <v>0.016</v>
       </c>
       <c r="G190" t="n">
         <v>0</v>
@@ -36899,7 +36899,7 @@
         <v>0</v>
       </c>
       <c r="L190" t="n">
-        <v>0.158</v>
+        <v>0.105</v>
       </c>
       <c r="M190" t="n">
         <v>0</v>
@@ -36998,7 +36998,7 @@
         <v>0.545</v>
       </c>
       <c r="F192" t="n">
-        <v>0.477</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="G192" t="n">
         <v>0</v>
@@ -37016,7 +37016,7 @@
         <v>0</v>
       </c>
       <c r="L192" t="n">
-        <v>0.278</v>
+        <v>0.207</v>
       </c>
       <c r="M192" t="n">
         <v>0</v>
@@ -37059,7 +37059,7 @@
         <v>0.5679999999999999</v>
       </c>
       <c r="F193" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G193" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>0</v>
       </c>
       <c r="L193" t="n">
-        <v>0.252</v>
+        <v>0.138</v>
       </c>
       <c r="M193" t="n">
         <v>0</v>
@@ -37120,7 +37120,7 @@
         <v>0.243</v>
       </c>
       <c r="F194" t="n">
-        <v>0.296</v>
+        <v>0.151</v>
       </c>
       <c r="G194" t="n">
         <v>0</v>
@@ -37138,7 +37138,7 @@
         <v>0</v>
       </c>
       <c r="L194" t="n">
-        <v>0.232</v>
+        <v>0.222</v>
       </c>
       <c r="M194" t="n">
         <v>0</v>
@@ -37307,7 +37307,7 @@
         <v>0.498</v>
       </c>
       <c r="F2" t="n">
-        <v>0.538</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -37431,7 +37431,7 @@
         <v>0.351</v>
       </c>
       <c r="F4" t="n">
-        <v>0.182</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -37493,7 +37493,7 @@
         <v>0.828</v>
       </c>
       <c r="F5" t="n">
-        <v>0.611</v>
+        <v>0.111</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>0.393</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -37617,7 +37617,7 @@
         <v>0.389</v>
       </c>
       <c r="F7" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -37741,7 +37741,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>0.083</v>
       </c>
       <c r="F10" t="n">
-        <v>0.111</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -37865,7 +37865,7 @@
         <v>0.491</v>
       </c>
       <c r="F11" t="n">
-        <v>0.446</v>
+        <v>0.196</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -37989,7 +37989,7 @@
         <v>0.77</v>
       </c>
       <c r="F13" t="n">
-        <v>0.281</v>
+        <v>0.031</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -38007,7 +38007,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -38051,7 +38051,7 @@
         <v>0.714</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6919999999999999</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -38069,7 +38069,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0.154</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0.5649999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>0.369</v>
+        <v>0.226</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0.571</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -38237,7 +38237,7 @@
         <v>0.924</v>
       </c>
       <c r="F17" t="n">
-        <v>0.524</v>
+        <v>0.19</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -38299,7 +38299,7 @@
         <v>0.594</v>
       </c>
       <c r="F18" t="n">
-        <v>0.733</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -38317,7 +38317,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -38361,7 +38361,7 @@
         <v>0.537</v>
       </c>
       <c r="F19" t="n">
-        <v>0.654</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -38379,7 +38379,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0.327</v>
+        <v>0.058</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -38423,7 +38423,7 @@
         <v>0.57</v>
       </c>
       <c r="F20" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -38485,7 +38485,7 @@
         <v>0.368</v>
       </c>
       <c r="F21" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -38547,7 +38547,7 @@
         <v>0.554</v>
       </c>
       <c r="F22" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -38565,7 +38565,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0.222</v>
+        <v>0.111</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -38609,7 +38609,7 @@
         <v>0.244</v>
       </c>
       <c r="F23" t="n">
-        <v>0.222</v>
+        <v>0.022</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -38627,7 +38627,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0.267</v>
+        <v>0.2</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -38671,7 +38671,7 @@
         <v>0.519</v>
       </c>
       <c r="F24" t="n">
-        <v>0.652</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -38795,7 +38795,7 @@
         <v>0.321</v>
       </c>
       <c r="F26" t="n">
-        <v>0.538</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -38813,7 +38813,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0.154</v>
+        <v>0.077</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -38857,7 +38857,7 @@
         <v>0.9340000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>0.788</v>
+        <v>0.121</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -38919,7 +38919,7 @@
         <v>0.535</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -38981,7 +38981,7 @@
         <v>0.43</v>
       </c>
       <c r="F29" t="n">
-        <v>0.706</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -38999,7 +38999,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0.235</v>
+        <v>0.176</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -39043,7 +39043,7 @@
         <v>0.589</v>
       </c>
       <c r="F30" t="n">
-        <v>0.518</v>
+        <v>0.268</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -39105,7 +39105,7 @@
         <v>0.289</v>
       </c>
       <c r="F31" t="n">
-        <v>0.583</v>
+        <v>0.383</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -39167,7 +39167,7 @@
         <v>0.484</v>
       </c>
       <c r="F32" t="n">
-        <v>0.431</v>
+        <v>0.231</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -39229,7 +39229,7 @@
         <v>0.6850000000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.021</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -39247,7 +39247,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0.079</v>
+        <v>0.037</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -39353,7 +39353,7 @@
         <v>0.8</v>
       </c>
       <c r="F35" t="n">
-        <v>0.667</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -39415,7 +39415,7 @@
         <v>0.55</v>
       </c>
       <c r="F36" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -39433,7 +39433,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -39601,7 +39601,7 @@
         <v>0.482</v>
       </c>
       <c r="F39" t="n">
-        <v>0.45</v>
+        <v>0.006</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -39619,7 +39619,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0.222</v>
+        <v>0.044</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -39849,7 +39849,7 @@
         <v>0.403</v>
       </c>
       <c r="F43" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -39867,7 +39867,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.183</v>
+        <v>0.133</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -39911,7 +39911,7 @@
         <v>0.75</v>
       </c>
       <c r="F44" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -40035,7 +40035,7 @@
         <v>0.518</v>
       </c>
       <c r="F46" t="n">
-        <v>0.587</v>
+        <v>0.254</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -40159,7 +40159,7 @@
         <v>0.7</v>
       </c>
       <c r="F48" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -40221,7 +40221,7 @@
         <v>0.424</v>
       </c>
       <c r="F49" t="n">
-        <v>0.667</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -40239,7 +40239,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>0.164</v>
+        <v>0.098</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
@@ -40283,7 +40283,7 @@
         <v>0.46</v>
       </c>
       <c r="F50" t="n">
-        <v>0.579</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -40301,7 +40301,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>0.053</v>
+        <v>0</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
@@ -40469,7 +40469,7 @@
         <v>0.748</v>
       </c>
       <c r="F53" t="n">
-        <v>0.784</v>
+        <v>0.099</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -40487,7 +40487,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>0.263</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
@@ -40531,7 +40531,7 @@
         <v>0.184</v>
       </c>
       <c r="F54" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -40593,7 +40593,7 @@
         <v>0.483</v>
       </c>
       <c r="F55" t="n">
-        <v>0.412</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -40611,7 +40611,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>0.284</v>
+        <v>0.078</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
@@ -40655,7 +40655,7 @@
         <v>0.539</v>
       </c>
       <c r="F56" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -40717,7 +40717,7 @@
         <v>0.238</v>
       </c>
       <c r="F57" t="n">
-        <v>0.143</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -40903,7 +40903,7 @@
         <v>0.495</v>
       </c>
       <c r="F60" t="n">
-        <v>0.402</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -40921,7 +40921,7 @@
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>0.119</v>
+        <v>0.024</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
@@ -40965,7 +40965,7 @@
         <v>0.5659999999999999</v>
       </c>
       <c r="F61" t="n">
-        <v>0.28</v>
+        <v>0.08</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -41027,7 +41027,7 @@
         <v>0.318</v>
       </c>
       <c r="F62" t="n">
-        <v>0.136</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -41169,7 +41169,7 @@
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
@@ -41213,7 +41213,7 @@
         <v>0.604</v>
       </c>
       <c r="F65" t="n">
-        <v>0.611</v>
+        <v>0.278</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -41337,7 +41337,7 @@
         <v>0.603</v>
       </c>
       <c r="F67" t="n">
-        <v>0.407</v>
+        <v>0.074</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -41399,7 +41399,7 @@
         <v>0.416</v>
       </c>
       <c r="F68" t="n">
-        <v>0.111</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -41417,7 +41417,7 @@
         <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>0.167</v>
+        <v>0.056</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
@@ -41523,7 +41523,7 @@
         <v>0.428</v>
       </c>
       <c r="F70" t="n">
-        <v>0.375</v>
+        <v>0.125</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -41585,7 +41585,7 @@
         <v>0.767</v>
       </c>
       <c r="F71" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -41709,7 +41709,7 @@
         <v>0.725</v>
       </c>
       <c r="F73" t="n">
-        <v>0.357</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -41727,7 +41727,7 @@
         <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>0.143</v>
+        <v>0</v>
       </c>
       <c r="M73" t="n">
         <v>0</v>
@@ -41833,7 +41833,7 @@
         <v>0.853</v>
       </c>
       <c r="F75" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -41895,7 +41895,7 @@
         <v>0.431</v>
       </c>
       <c r="F76" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -41913,7 +41913,7 @@
         <v>0</v>
       </c>
       <c r="L76" t="n">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="M76" t="n">
         <v>0</v>
@@ -41957,7 +41957,7 @@
         <v>0.45</v>
       </c>
       <c r="F77" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -42019,7 +42019,7 @@
         <v>0.53</v>
       </c>
       <c r="F78" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -42037,7 +42037,7 @@
         <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="M78" t="n">
         <v>0</v>
@@ -42081,7 +42081,7 @@
         <v>0.391</v>
       </c>
       <c r="F79" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -42099,7 +42099,7 @@
         <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>0.167</v>
+        <v>0.083</v>
       </c>
       <c r="M79" t="n">
         <v>0</v>
@@ -42205,7 +42205,7 @@
         <v>0.228</v>
       </c>
       <c r="F81" t="n">
-        <v>0.269</v>
+        <v>0.018</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -42267,7 +42267,7 @@
         <v>0.157</v>
       </c>
       <c r="F82" t="n">
-        <v>0.273</v>
+        <v>0</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -42329,7 +42329,7 @@
         <v>0.364</v>
       </c>
       <c r="F83" t="n">
-        <v>0.455</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -42347,7 +42347,7 @@
         <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>0.242</v>
+        <v>0.061</v>
       </c>
       <c r="M83" t="n">
         <v>0</v>
@@ -42409,7 +42409,7 @@
         <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="M84" t="n">
         <v>0</v>
@@ -42453,7 +42453,7 @@
         <v>0.542</v>
       </c>
       <c r="F85" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -42515,7 +42515,7 @@
         <v>0.983</v>
       </c>
       <c r="F86" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -42577,7 +42577,7 @@
         <v>0.526</v>
       </c>
       <c r="F87" t="n">
-        <v>0.425</v>
+        <v>0.068</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -42595,7 +42595,7 @@
         <v>0</v>
       </c>
       <c r="L87" t="n">
-        <v>0.19</v>
+        <v>0.119</v>
       </c>
       <c r="M87" t="n">
         <v>0</v>
@@ -42639,7 +42639,7 @@
         <v>0.656</v>
       </c>
       <c r="F88" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -42701,7 +42701,7 @@
         <v>0.281</v>
       </c>
       <c r="F89" t="n">
-        <v>0.182</v>
+        <v>0</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -42719,7 +42719,7 @@
         <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>0.318</v>
+        <v>0</v>
       </c>
       <c r="M89" t="n">
         <v>0</v>
@@ -42825,7 +42825,7 @@
         <v>0.529</v>
       </c>
       <c r="F91" t="n">
-        <v>0.737</v>
+        <v>0.053</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -42843,7 +42843,7 @@
         <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>0.298</v>
+        <v>0.14</v>
       </c>
       <c r="M91" t="n">
         <v>0</v>
@@ -42949,7 +42949,7 @@
         <v>0.651</v>
       </c>
       <c r="F93" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -43073,7 +43073,7 @@
         <v>0.126</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
@@ -43091,7 +43091,7 @@
         <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M95" t="n">
         <v>0</v>
@@ -43135,7 +43135,7 @@
         <v>0.23</v>
       </c>
       <c r="F96" t="n">
-        <v>0.405</v>
+        <v>0.024</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
@@ -43153,7 +43153,7 @@
         <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>0.048</v>
+        <v>0</v>
       </c>
       <c r="M96" t="n">
         <v>0</v>
@@ -43197,7 +43197,7 @@
         <v>0.6</v>
       </c>
       <c r="F97" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
@@ -43259,7 +43259,7 @@
         <v>0.35</v>
       </c>
       <c r="F98" t="n">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
@@ -43277,7 +43277,7 @@
         <v>0</v>
       </c>
       <c r="L98" t="n">
-        <v>0.375</v>
+        <v>0.125</v>
       </c>
       <c r="M98" t="n">
         <v>0</v>
@@ -43507,7 +43507,7 @@
         <v>0.169</v>
       </c>
       <c r="F102" t="n">
-        <v>0.244</v>
+        <v>0.022</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
@@ -43569,7 +43569,7 @@
         <v>0.526</v>
       </c>
       <c r="F103" t="n">
-        <v>0.442</v>
+        <v>0.109</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
@@ -43631,7 +43631,7 @@
         <v>0.509</v>
       </c>
       <c r="F104" t="n">
-        <v>0.327</v>
+        <v>0.041</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
@@ -43755,7 +43755,7 @@
         <v>0.7</v>
       </c>
       <c r="F106" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
@@ -43817,7 +43817,7 @@
         <v>0.49</v>
       </c>
       <c r="F107" t="n">
-        <v>0.286</v>
+        <v>0</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
@@ -43835,7 +43835,7 @@
         <v>0</v>
       </c>
       <c r="L107" t="n">
-        <v>0.214</v>
+        <v>0.143</v>
       </c>
       <c r="M107" t="n">
         <v>0</v>
@@ -43879,7 +43879,7 @@
         <v>0.496</v>
       </c>
       <c r="F108" t="n">
-        <v>0.667</v>
+        <v>0.056</v>
       </c>
       <c r="G108" t="n">
         <v>0</v>
@@ -43897,7 +43897,7 @@
         <v>0</v>
       </c>
       <c r="L108" t="n">
-        <v>0.056</v>
+        <v>0</v>
       </c>
       <c r="M108" t="n">
         <v>0</v>
@@ -43941,7 +43941,7 @@
         <v>0.5590000000000001</v>
       </c>
       <c r="F109" t="n">
-        <v>0.762</v>
+        <v>0</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
@@ -43959,7 +43959,7 @@
         <v>0</v>
       </c>
       <c r="L109" t="n">
-        <v>0.048</v>
+        <v>0</v>
       </c>
       <c r="M109" t="n">
         <v>0</v>
@@ -44003,7 +44003,7 @@
         <v>0.508</v>
       </c>
       <c r="F110" t="n">
-        <v>0.47</v>
+        <v>0.035</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
@@ -44021,7 +44021,7 @@
         <v>0</v>
       </c>
       <c r="L110" t="n">
-        <v>0.313</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="M110" t="n">
         <v>0</v>
@@ -44065,7 +44065,7 @@
         <v>0.701</v>
       </c>
       <c r="F111" t="n">
-        <v>0.583</v>
+        <v>0</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
@@ -44083,7 +44083,7 @@
         <v>0</v>
       </c>
       <c r="L111" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
       <c r="M111" t="n">
         <v>0</v>
@@ -44145,7 +44145,7 @@
         <v>0</v>
       </c>
       <c r="L112" t="n">
-        <v>0.333</v>
+        <v>0.275</v>
       </c>
       <c r="M112" t="n">
         <v>0</v>
@@ -44189,7 +44189,7 @@
         <v>0.314</v>
       </c>
       <c r="F113" t="n">
-        <v>0.4</v>
+        <v>0.025</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
@@ -44207,7 +44207,7 @@
         <v>0</v>
       </c>
       <c r="L113" t="n">
-        <v>0.104</v>
+        <v>0.021</v>
       </c>
       <c r="M113" t="n">
         <v>0</v>
@@ -44251,7 +44251,7 @@
         <v>0.494</v>
       </c>
       <c r="F114" t="n">
-        <v>0.636</v>
+        <v>0</v>
       </c>
       <c r="G114" t="n">
         <v>0</v>
@@ -44269,7 +44269,7 @@
         <v>0</v>
       </c>
       <c r="L114" t="n">
-        <v>0.142</v>
+        <v>0.097</v>
       </c>
       <c r="M114" t="n">
         <v>0</v>
@@ -44313,7 +44313,7 @@
         <v>0.6</v>
       </c>
       <c r="F115" t="n">
-        <v>0.667</v>
+        <v>0</v>
       </c>
       <c r="G115" t="n">
         <v>0</v>
@@ -44375,7 +44375,7 @@
         <v>0.582</v>
       </c>
       <c r="F116" t="n">
-        <v>0.786</v>
+        <v>0</v>
       </c>
       <c r="G116" t="n">
         <v>0</v>
@@ -44393,7 +44393,7 @@
         <v>0</v>
       </c>
       <c r="L116" t="n">
-        <v>0.143</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="M116" t="n">
         <v>0</v>
@@ -44437,7 +44437,7 @@
         <v>0.5669999999999999</v>
       </c>
       <c r="F117" t="n">
-        <v>0.467</v>
+        <v>0</v>
       </c>
       <c r="G117" t="n">
         <v>0</v>
@@ -44561,7 +44561,7 @@
         <v>0.4</v>
       </c>
       <c r="F119" t="n">
-        <v>0.214</v>
+        <v>0</v>
       </c>
       <c r="G119" t="n">
         <v>0</v>
@@ -44579,7 +44579,7 @@
         <v>0</v>
       </c>
       <c r="L119" t="n">
-        <v>0.347</v>
+        <v>0.061</v>
       </c>
       <c r="M119" t="n">
         <v>0</v>
@@ -44623,7 +44623,7 @@
         <v>0.841</v>
       </c>
       <c r="F120" t="n">
-        <v>0.667</v>
+        <v>0</v>
       </c>
       <c r="G120" t="n">
         <v>0</v>
@@ -44747,7 +44747,7 @@
         <v>0.515</v>
       </c>
       <c r="F122" t="n">
-        <v>0.625</v>
+        <v>0.125</v>
       </c>
       <c r="G122" t="n">
         <v>0</v>
@@ -44809,7 +44809,7 @@
         <v>0.298</v>
       </c>
       <c r="F123" t="n">
-        <v>0.503</v>
+        <v>0.217</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
@@ -44933,7 +44933,7 @@
         <v>0.15</v>
       </c>
       <c r="F125" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G125" t="n">
         <v>0</v>
@@ -44995,7 +44995,7 @@
         <v>0.678</v>
       </c>
       <c r="F126" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.027</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
@@ -45013,7 +45013,7 @@
         <v>0</v>
       </c>
       <c r="L126" t="n">
-        <v>0.2</v>
+        <v>0.067</v>
       </c>
       <c r="M126" t="n">
         <v>0</v>
@@ -45075,7 +45075,7 @@
         <v>0</v>
       </c>
       <c r="L127" t="n">
-        <v>0.42</v>
+        <v>0.32</v>
       </c>
       <c r="M127" t="n">
         <v>0</v>
@@ -45119,7 +45119,7 @@
         <v>0.8</v>
       </c>
       <c r="F128" t="n">
-        <v>0.667</v>
+        <v>0</v>
       </c>
       <c r="G128" t="n">
         <v>0</v>
@@ -45199,7 +45199,7 @@
         <v>0</v>
       </c>
       <c r="L129" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M129" t="n">
         <v>0</v>
@@ -45243,7 +45243,7 @@
         <v>0.737</v>
       </c>
       <c r="F130" t="n">
-        <v>0.744</v>
+        <v>0.119</v>
       </c>
       <c r="G130" t="n">
         <v>0</v>
@@ -45305,7 +45305,7 @@
         <v>0.717</v>
       </c>
       <c r="F131" t="n">
-        <v>0.667</v>
+        <v>0</v>
       </c>
       <c r="G131" t="n">
         <v>0</v>
@@ -45367,7 +45367,7 @@
         <v>0.182</v>
       </c>
       <c r="F132" t="n">
-        <v>0.206</v>
+        <v>0</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
@@ -45385,7 +45385,7 @@
         <v>0</v>
       </c>
       <c r="L132" t="n">
-        <v>0.044</v>
+        <v>0.015</v>
       </c>
       <c r="M132" t="n">
         <v>0</v>
@@ -45509,7 +45509,7 @@
         <v>0</v>
       </c>
       <c r="L134" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="M134" t="n">
         <v>0</v>
@@ -45553,7 +45553,7 @@
         <v>0.199</v>
       </c>
       <c r="F135" t="n">
-        <v>0.222</v>
+        <v>0</v>
       </c>
       <c r="G135" t="n">
         <v>0</v>
@@ -45571,7 +45571,7 @@
         <v>0</v>
       </c>
       <c r="L135" t="n">
-        <v>0.056</v>
+        <v>0</v>
       </c>
       <c r="M135" t="n">
         <v>0</v>
@@ -45677,7 +45677,7 @@
         <v>0.167</v>
       </c>
       <c r="F137" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="G137" t="n">
         <v>0</v>
@@ -45739,7 +45739,7 @@
         <v>0.553</v>
       </c>
       <c r="F138" t="n">
-        <v>0.397</v>
+        <v>0.097</v>
       </c>
       <c r="G138" t="n">
         <v>0</v>
@@ -45757,7 +45757,7 @@
         <v>0</v>
       </c>
       <c r="L138" t="n">
-        <v>0.167</v>
+        <v>0.067</v>
       </c>
       <c r="M138" t="n">
         <v>0</v>
@@ -45801,7 +45801,7 @@
         <v>0.455</v>
       </c>
       <c r="F139" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
       <c r="G139" t="n">
         <v>0</v>
@@ -45863,7 +45863,7 @@
         <v>0.262</v>
       </c>
       <c r="F140" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G140" t="n">
         <v>0</v>
@@ -45925,7 +45925,7 @@
         <v>0.393</v>
       </c>
       <c r="F141" t="n">
-        <v>0.381</v>
+        <v>0.095</v>
       </c>
       <c r="G141" t="n">
         <v>0</v>
@@ -45943,7 +45943,7 @@
         <v>0</v>
       </c>
       <c r="L141" t="n">
-        <v>0.143</v>
+        <v>0</v>
       </c>
       <c r="M141" t="n">
         <v>0</v>
@@ -45987,7 +45987,7 @@
         <v>0.304</v>
       </c>
       <c r="F142" t="n">
-        <v>0.143</v>
+        <v>0</v>
       </c>
       <c r="G142" t="n">
         <v>0</v>
@@ -46049,7 +46049,7 @@
         <v>0.77</v>
       </c>
       <c r="F143" t="n">
-        <v>1</v>
+        <v>0.091</v>
       </c>
       <c r="G143" t="n">
         <v>0</v>
@@ -46067,7 +46067,7 @@
         <v>0</v>
       </c>
       <c r="L143" t="n">
-        <v>0.227</v>
+        <v>0.136</v>
       </c>
       <c r="M143" t="n">
         <v>0</v>
@@ -46111,7 +46111,7 @@
         <v>0.856</v>
       </c>
       <c r="F144" t="n">
-        <v>0.447</v>
+        <v>0.197</v>
       </c>
       <c r="G144" t="n">
         <v>0</v>
@@ -46173,7 +46173,7 @@
         <v>0.6860000000000001</v>
       </c>
       <c r="F145" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G145" t="n">
         <v>0</v>
@@ -46235,7 +46235,7 @@
         <v>0.467</v>
       </c>
       <c r="F146" t="n">
-        <v>0.323</v>
+        <v>0.008</v>
       </c>
       <c r="G146" t="n">
         <v>0</v>
@@ -46253,7 +46253,7 @@
         <v>0</v>
       </c>
       <c r="L146" t="n">
-        <v>0.105</v>
+        <v>0</v>
       </c>
       <c r="M146" t="n">
         <v>0</v>
@@ -46297,7 +46297,7 @@
         <v>0.714</v>
       </c>
       <c r="F147" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="G147" t="n">
         <v>0</v>
@@ -46421,7 +46421,7 @@
         <v>0.11</v>
       </c>
       <c r="F149" t="n">
-        <v>0.164</v>
+        <v>0.061</v>
       </c>
       <c r="G149" t="n">
         <v>0</v>
@@ -46483,7 +46483,7 @@
         <v>0.175</v>
       </c>
       <c r="F150" t="n">
-        <v>0.286</v>
+        <v>0</v>
       </c>
       <c r="G150" t="n">
         <v>0</v>
@@ -46545,7 +46545,7 @@
         <v>0.27</v>
       </c>
       <c r="F151" t="n">
-        <v>0.344</v>
+        <v>0</v>
       </c>
       <c r="G151" t="n">
         <v>0</v>
@@ -46563,7 +46563,7 @@
         <v>0</v>
       </c>
       <c r="L151" t="n">
-        <v>0.156</v>
+        <v>0.094</v>
       </c>
       <c r="M151" t="n">
         <v>0</v>
@@ -46607,7 +46607,7 @@
         <v>0.512</v>
       </c>
       <c r="F152" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G152" t="n">
         <v>0</v>
@@ -46625,7 +46625,7 @@
         <v>0</v>
       </c>
       <c r="L152" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="M152" t="n">
         <v>0</v>
@@ -46669,7 +46669,7 @@
         <v>0.076</v>
       </c>
       <c r="F153" t="n">
-        <v>0.067</v>
+        <v>0</v>
       </c>
       <c r="G153" t="n">
         <v>0</v>
@@ -46749,7 +46749,7 @@
         <v>0</v>
       </c>
       <c r="L154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M154" t="n">
         <v>0</v>
@@ -46793,7 +46793,7 @@
         <v>0.434</v>
       </c>
       <c r="F155" t="n">
-        <v>0.25</v>
+        <v>0.191</v>
       </c>
       <c r="G155" t="n">
         <v>0</v>
@@ -46811,7 +46811,7 @@
         <v>0</v>
       </c>
       <c r="L155" t="n">
-        <v>0.118</v>
+        <v>0.059</v>
       </c>
       <c r="M155" t="n">
         <v>0</v>
@@ -46855,7 +46855,7 @@
         <v>0.662</v>
       </c>
       <c r="F156" t="n">
-        <v>0.923</v>
+        <v>0</v>
       </c>
       <c r="G156" t="n">
         <v>0</v>
@@ -46873,7 +46873,7 @@
         <v>0</v>
       </c>
       <c r="L156" t="n">
-        <v>0.077</v>
+        <v>0</v>
       </c>
       <c r="M156" t="n">
         <v>0</v>
@@ -46979,7 +46979,7 @@
         <v>0.296</v>
       </c>
       <c r="F158" t="n">
-        <v>0.308</v>
+        <v>0.038</v>
       </c>
       <c r="G158" t="n">
         <v>0</v>
@@ -46997,7 +46997,7 @@
         <v>0</v>
       </c>
       <c r="L158" t="n">
-        <v>0.276</v>
+        <v>0.122</v>
       </c>
       <c r="M158" t="n">
         <v>0</v>
@@ -47103,7 +47103,7 @@
         <v>0.639</v>
       </c>
       <c r="F160" t="n">
-        <v>0.833</v>
+        <v>0</v>
       </c>
       <c r="G160" t="n">
         <v>0</v>
@@ -47165,7 +47165,7 @@
         <v>0.431</v>
       </c>
       <c r="F161" t="n">
-        <v>0.475</v>
+        <v>0.02</v>
       </c>
       <c r="G161" t="n">
         <v>0</v>
@@ -47183,7 +47183,7 @@
         <v>0</v>
       </c>
       <c r="L161" t="n">
-        <v>0.309</v>
+        <v>0.036</v>
       </c>
       <c r="M161" t="n">
         <v>0</v>
@@ -47227,7 +47227,7 @@
         <v>0.665</v>
       </c>
       <c r="F162" t="n">
-        <v>0.315</v>
+        <v>0.204</v>
       </c>
       <c r="G162" t="n">
         <v>0</v>
@@ -47413,7 +47413,7 @@
         <v>0.602</v>
       </c>
       <c r="F165" t="n">
-        <v>0.194</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="G165" t="n">
         <v>0</v>
@@ -47431,7 +47431,7 @@
         <v>0</v>
       </c>
       <c r="L165" t="n">
-        <v>0.292</v>
+        <v>0.167</v>
       </c>
       <c r="M165" t="n">
         <v>0</v>
@@ -47493,7 +47493,7 @@
         <v>0</v>
       </c>
       <c r="L166" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="M166" t="n">
         <v>0</v>
@@ -47537,7 +47537,7 @@
         <v>0.547</v>
       </c>
       <c r="F167" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G167" t="n">
         <v>0</v>
@@ -47599,7 +47599,7 @@
         <v>0.555</v>
       </c>
       <c r="F168" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.059</v>
       </c>
       <c r="G168" t="n">
         <v>0</v>
@@ -47617,7 +47617,7 @@
         <v>0</v>
       </c>
       <c r="L168" t="n">
-        <v>0.333</v>
+        <v>0.083</v>
       </c>
       <c r="M168" t="n">
         <v>0</v>
@@ -47661,7 +47661,7 @@
         <v>0.596</v>
       </c>
       <c r="F169" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G169" t="n">
         <v>0</v>
@@ -47679,7 +47679,7 @@
         <v>0</v>
       </c>
       <c r="L169" t="n">
-        <v>0.158</v>
+        <v>0.108</v>
       </c>
       <c r="M169" t="n">
         <v>0</v>
@@ -47723,7 +47723,7 @@
         <v>0.8</v>
       </c>
       <c r="F170" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="G170" t="n">
         <v>0</v>
@@ -47909,7 +47909,7 @@
         <v>0.834</v>
       </c>
       <c r="F173" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="G173" t="n">
         <v>0</v>
@@ -47971,7 +47971,7 @@
         <v>0.479</v>
       </c>
       <c r="F174" t="n">
-        <v>0.583</v>
+        <v>0</v>
       </c>
       <c r="G174" t="n">
         <v>0</v>
@@ -47989,7 +47989,7 @@
         <v>0</v>
       </c>
       <c r="L174" t="n">
-        <v>0.167</v>
+        <v>0.083</v>
       </c>
       <c r="M174" t="n">
         <v>0</v>
@@ -48219,7 +48219,7 @@
         <v>0.966</v>
       </c>
       <c r="F178" t="n">
-        <v>0.527</v>
+        <v>0.127</v>
       </c>
       <c r="G178" t="n">
         <v>0</v>
@@ -48237,7 +48237,7 @@
         <v>0</v>
       </c>
       <c r="L178" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="M178" t="n">
         <v>0</v>
@@ -48281,7 +48281,7 @@
         <v>0.491</v>
       </c>
       <c r="F179" t="n">
-        <v>0.286</v>
+        <v>0</v>
       </c>
       <c r="G179" t="n">
         <v>0</v>
@@ -48299,7 +48299,7 @@
         <v>0</v>
       </c>
       <c r="L179" t="n">
-        <v>0.07099999999999999</v>
+        <v>0</v>
       </c>
       <c r="M179" t="n">
         <v>0</v>
@@ -48343,7 +48343,7 @@
         <v>0.159</v>
       </c>
       <c r="F180" t="n">
-        <v>0.077</v>
+        <v>0</v>
       </c>
       <c r="G180" t="n">
         <v>0</v>
@@ -48361,7 +48361,7 @@
         <v>0</v>
       </c>
       <c r="L180" t="n">
-        <v>0.154</v>
+        <v>0</v>
       </c>
       <c r="M180" t="n">
         <v>0</v>
@@ -48405,7 +48405,7 @@
         <v>0.374</v>
       </c>
       <c r="F181" t="n">
-        <v>0.111</v>
+        <v>0</v>
       </c>
       <c r="G181" t="n">
         <v>0</v>
@@ -48467,7 +48467,7 @@
         <v>0.201</v>
       </c>
       <c r="F182" t="n">
-        <v>0.273</v>
+        <v>0</v>
       </c>
       <c r="G182" t="n">
         <v>0</v>
@@ -48547,7 +48547,7 @@
         <v>0</v>
       </c>
       <c r="L183" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="M183" t="n">
         <v>0</v>
@@ -48715,7 +48715,7 @@
         <v>0.269</v>
       </c>
       <c r="F186" t="n">
-        <v>0.513</v>
+        <v>0.051</v>
       </c>
       <c r="G186" t="n">
         <v>0</v>
@@ -48733,7 +48733,7 @@
         <v>0</v>
       </c>
       <c r="L186" t="n">
-        <v>0.154</v>
+        <v>0.077</v>
       </c>
       <c r="M186" t="n">
         <v>0</v>
@@ -48777,7 +48777,7 @@
         <v>0.495</v>
       </c>
       <c r="F187" t="n">
-        <v>0.354</v>
+        <v>0.021</v>
       </c>
       <c r="G187" t="n">
         <v>0</v>
@@ -48795,7 +48795,7 @@
         <v>0</v>
       </c>
       <c r="L187" t="n">
-        <v>0.232</v>
+        <v>0.051</v>
       </c>
       <c r="M187" t="n">
         <v>0</v>
@@ -48839,7 +48839,7 @@
         <v>0.5669999999999999</v>
       </c>
       <c r="F188" t="n">
-        <v>0.6840000000000001</v>
+        <v>0</v>
       </c>
       <c r="G188" t="n">
         <v>0</v>
@@ -48857,7 +48857,7 @@
         <v>0</v>
       </c>
       <c r="L188" t="n">
-        <v>0.263</v>
+        <v>0.211</v>
       </c>
       <c r="M188" t="n">
         <v>0</v>
@@ -48963,7 +48963,7 @@
         <v>0.398</v>
       </c>
       <c r="F190" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
       <c r="G190" t="n">
         <v>0</v>
@@ -49087,7 +49087,7 @@
         <v>0.204</v>
       </c>
       <c r="F192" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G192" t="n">
         <v>0</v>
@@ -49273,7 +49273,7 @@
         <v>0.278</v>
       </c>
       <c r="F195" t="n">
-        <v>0.419</v>
+        <v>0.133</v>
       </c>
       <c r="G195" t="n">
         <v>0</v>
@@ -49291,7 +49291,7 @@
         <v>0</v>
       </c>
       <c r="L195" t="n">
-        <v>0.179</v>
+        <v>0.107</v>
       </c>
       <c r="M195" t="n">
         <v>0</v>
@@ -49335,7 +49335,7 @@
         <v>0.613</v>
       </c>
       <c r="F196" t="n">
-        <v>0.286</v>
+        <v>0.143</v>
       </c>
       <c r="G196" t="n">
         <v>0</v>
@@ -49459,7 +49459,7 @@
         <v>0.444</v>
       </c>
       <c r="F198" t="n">
-        <v>0.321</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="G198" t="n">
         <v>0</v>
@@ -49477,7 +49477,7 @@
         <v>0</v>
       </c>
       <c r="L198" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="M198" t="n">
         <v>0</v>
@@ -49521,7 +49521,7 @@
         <v>0.647</v>
       </c>
       <c r="F199" t="n">
-        <v>0.55</v>
+        <v>0.3</v>
       </c>
       <c r="G199" t="n">
         <v>0</v>
@@ -49539,7 +49539,7 @@
         <v>0</v>
       </c>
       <c r="L199" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M199" t="n">
         <v>0</v>
@@ -49601,7 +49601,7 @@
         <v>0</v>
       </c>
       <c r="L200" t="n">
-        <v>0.053</v>
+        <v>0</v>
       </c>
       <c r="M200" t="n">
         <v>0</v>
@@ -49645,7 +49645,7 @@
         <v>0.5</v>
       </c>
       <c r="F201" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
       <c r="G201" t="n">
         <v>0</v>
@@ -49703,7 +49703,7 @@
         <v>0.467</v>
       </c>
       <c r="F202" t="n">
-        <v>0.348</v>
+        <v>0.074</v>
       </c>
       <c r="G202" t="n">
         <v>0</v>
@@ -49721,7 +49721,7 @@
         <v>0</v>
       </c>
       <c r="L202" t="n">
-        <v>0.229</v>
+        <v>0.16</v>
       </c>
       <c r="M202" t="n">
         <v>0</v>
@@ -49765,7 +49765,7 @@
         <v>0.487</v>
       </c>
       <c r="F203" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
       <c r="G203" t="n">
         <v>0</v>
@@ -49783,7 +49783,7 @@
         <v>0</v>
       </c>
       <c r="L203" t="n">
-        <v>0.167</v>
+        <v>0.078</v>
       </c>
       <c r="M203" t="n">
         <v>0</v>
@@ -49827,7 +49827,7 @@
         <v>0.249</v>
       </c>
       <c r="F204" t="n">
-        <v>0.248</v>
+        <v>0.143</v>
       </c>
       <c r="G204" t="n">
         <v>0</v>
@@ -49845,7 +49845,7 @@
         <v>0</v>
       </c>
       <c r="L204" t="n">
-        <v>0.225</v>
+        <v>0.218</v>
       </c>
       <c r="M204" t="n">
         <v>0</v>
